--- a/subway.xlsx
+++ b/subway.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_spring\subway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-spring\subway\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DCA8D-B123-47DA-A978-84160BA6CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1544,7 +1545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1952,18 +1953,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="71.75" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="71.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>insert into user set  user_email = 'aaaa1@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>insert into user set  user_email = 'aaaa2@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>insert into user set  user_email = 'aaaa3@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>insert into user set  user_email = 'aaaa4@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>insert into user set  user_email = 'aaaa5@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>insert into user set  user_email = 'aaaa6@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>insert into user set  user_email = 'aaaa7@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>insert into user set  user_email = 'aaaa8@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>insert into user set  user_email = 'aaaa9@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>insert into user set  user_email = 'aaaa10@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>insert into user set  user_email = 'aaaa11@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>insert into user set  user_email = 'aaaa12@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>insert into user set  user_email = 'aaaa13@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>insert into user set  user_email = 'aaaa14@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>insert into user set  user_email = 'aaaa15@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>insert into user set  user_email = 'aaaa16@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>insert into user set  user_email = 'aaaa17@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>insert into user set  user_email = 'aaaa18@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>insert into user set  user_email = 'aaaa19@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2206,47 +2207,47 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="114.25" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'main', menu_name =  '메뉴소개', menu_url = '/menu';</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샌드위치', menu_url = '/menu/sandwich';</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '랩ㆍ기타', menu_url = '/menu/rap';</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샐러드', menu_url = '/menu/salad';</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '아침메뉴', menu_url = '/menu/morningmenu';</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '스마일 썹', menu_url = '/menu/smilesup';</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '단체메뉴', menu_url = '/menu/groupmenu';</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'main', menu_name =  '이용방법', menu_url = '/user';</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '써브웨이 이용방법', menu_url = '/use/subwayuse';</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '단체메뉴 이용방법', menu_url = '/use/groupuse';</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '신선한 재료 소개', menu_url = '/use/material';</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  'App 이용방법', menu_url = '/use/appuse';</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'main', menu_name =  '새소식', menu_url = '/news';</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '이벤트ㆍ프로모션', menu_url = '/news/event';</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '뉴스ㆍ공지사항', menu_url = '/news/notice';</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '광고영상', menu_url = '/news/advertisement';</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'main', menu_name =  '써브웨이', menu_url = '/story';</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 역사', menu_url = '/story/history';</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 약속', menu_url = '/story/promise';</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 사회공헌', menu_url = '/story/socialcontribution';</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '샌드위치 아티스트 지원', menu_url = '/story/artsupport';</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '매장찾기', menu_url = '/story/storefind';</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'main', menu_name =  '가맹점', menu_url = '/store';</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '써브웨이 프랜차이즈', menu_url = '/store/franchise';</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹관련 FAQ', menu_url = '/store/faq';</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹신청ㆍ문의', menu_url = '/store/membership';</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '지사안내', menu_url = '/store/branch';</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '사업설명회', menu_url = '/store/business';</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'main', menu_name =  '온라인 주문', menu_url = '/order';</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'FAST-SUB', menu_url = '/order/fast';</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'HOME-SUB', menu_url = '/order/home';</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2829,27 +2830,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1"/>
     <col min="10" max="10" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>437</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프 아보카도', product_eng_name = 'Shrimp Avocado', product_kcal = '297 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu001.png';</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>334</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨 아보카도', product_eng_name = 'Roast Chicken Avocado', product_kcal = '356 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu002.png';</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>334</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그 슬라이스 아보카도', product_eng_name = 'Egg slice Avocado', product_kcal = '335 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu003.png';</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>334</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '279 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샌드위치를 입안 가득 즐겨보세요.', product_image = 'menu004.png';</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>334</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '이탈리안 비엠티 썹픽', product_eng_name = 'Italian B.M.T.™ SUBPICK', product_kcal = '548 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 파마산 오레가노/ 치즈 : 모차렐라 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 스위트 어니언 &amp;amp; 랜치', product_image = 'menu005.png';</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>334</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크&amp;amp;치즈 썹픽', product_eng_name = 'Steak &amp;amp; Cheese SUBPICK', product_kcal = '507 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 마요네즈 &amp;amp; 사우스웨스트', product_image = 'menu006.png';</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>334</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '로티세리 바비큐 치킨 썹픽', product_eng_name = 'Rotisserie Barbecue Chicken SUBPICK', product_kcal = '463 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망,양파,오이/ 소스 : 랜치 &amp;amp; 스위트 칠리', product_image = 'menu007.png';</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>334</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '355 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미가 입안 한가득', product_image = 'menu008.png';</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>334</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '355 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu009.png';</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '245 kcal', product_comment = '탱글한 쉬림프에 이국적인 시즈닝을 더해 색다른 매콤함을 만나보세요!', product_image = 'menu010.png';</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>334</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '241 kcal', product_comment = '탱글한 쉬림프 5마리가 그대로, 신선하고 담백한 쉬림프의 맛 그대로 즐겨보세요!', product_image = 'menu011.png';</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>334</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '300 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu012.png';</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>334</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '327 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득. &lt;br&gt;손으로 찢어 더욱 부드러운 치킨의 혁명', product_image = 'menu013.png';</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>334</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '372 kcal', product_comment = '써브웨이의 코리안 스타일 샌드위치!&lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu014.png';</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>334</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '327 kcal', product_comment = '미국 스타일의 풀드 포크 바비큐가 가득 들어간 샌드위치', product_image = 'menu015.png';</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>334</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '299 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해 완벽해진 조화를 즐겨보세요!', product_image = 'menu016.png';</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>334</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '314 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스와의 환상적인 만남', product_image = 'menu017.png';</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>334</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '464 kcal', product_comment = '페퍼로니 &amp;amp; 살라미가 입안 가득, 페퍼로니의 부드러운 매콤함을 만나보세요!', product_image = 'menu018.png';</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>334</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T.™', product_kcal = '388 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T.', product_image = 'menu019.png';</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>334</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '300 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu020.png';</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>334</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '265 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu021.png';</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>334</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '316 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu022.png';</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>334</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '262 kcal', product_comment = '풍부한 햄이 만들어내는 담백함을 입 안 가득 즐겨보세요!', product_image = 'menu023.png';</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>334</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '416 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu024.png';</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>334</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite', product_kcal = '209 kcal', product_comment = '갓 구운 빵과 신선한 8가지 야채로 즐기는 깔끔한 한끼', product_image = 'menu025.png';</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>334</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu026.png';</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>334</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu027.png';</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>334</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu028.png';</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>334</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu029.png';</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>334</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu030.png';</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>334</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu031.png';</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>334</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu032.png';</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>334</v>
       </c>
@@ -3928,7 +3929,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu033.png';</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>335</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '스테이크 &amp;amp; 치즈 아보카도 랩', product_eng_name = 'Steak &amp;amp; Cheese Avocado Wrap', product_kcal = '478 kcal', product_comment = '육즙 가득 스테이크에 프레쉬함을 더해줄&lt;br&gt;아보카도와 슈레드치즈 그리고&lt;br&gt;모차렐라치즈까지!&lt;br&gt;최상의 야채와 소스 조합으로 탄생한&lt;br&gt;스테이크 &amp;amp; 치즈 아보카도 랩!', product_image = 'menu034.png';</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>335</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '쉬림프 에그마요 랩', product_eng_name = 'Shrimp Egg Mayo Wrap', product_kcal = '516 kcal', product_comment = '고소한 에그마요와 탱글한 통새우의 만남, 부드럽고 담백한 조화를 즐겨보세요! &lt;br&gt;&lt;br&gt;* 일부매장에 한하여 그릴드 랩으로 제공되며, 메뉴 특성상 양상추는 제외, 에그마요는 에그지단으로 변경되어 제공됩니다.', product_image = 'menu035.png';</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>335</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>insert into product set product_kind = '02', product_article = '07', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu036.png';</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>336</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프 아보카도 샐러드', product_eng_name = 'Shrimp Avocado Salad', product_kcal = '136 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu037.png';</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>336</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨 아보카도 샐러드', product_eng_name = 'Roast Chicken Avocado Salad', product_kcal = '195 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu038.png';</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>336</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그 슬라이스 아보카도 샐러드', product_eng_name = 'Egg Slice Avocado Salad', product_kcal = '173 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu039.png';</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>336</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>insert into product set product_kind = '03', product_article = '04', product_name =  '미니 로티세리 치킨 샐러드', product_eng_name = 'Mini Rotisserie Chicken Salad', product_kcal = '42 kcal', product_comment = '신선함과 간편함을 한 컵에 담아, 가볍고 건강하게 즐기는 미니 샐러드', product_image = 'menu040.png';</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>336</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '117 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샐러드를 만나보세요.', product_image = 'menu041.png';</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>336</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '83 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 스파이시 쉬림프를 만나보세요!', product_image = 'menu042.png';</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>336</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '302 kcal', product_comment = '살라미, 페퍼로니가 입안 한가득! 진짜 이탈리아의 맛 가득한 샐러드', product_image = 'menu043.png';</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>336</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '193 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미 가득 스테이크 &amp;amp; 치즈 샐러드!', product_image = 'menu044.png';</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>336</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '200 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu045.png';</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>336</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '79 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 쉬림프를 만나보세요.', product_image = 'menu046.png';</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>336</v>
       </c>
@@ -4390,7 +4391,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '138 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu047.png';</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>336</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '165 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득.&lt;br&gt;손으로 찢어 더욱 부드러운 치킨이 샐러드에 쏙! ', product_image = 'menu048.png';</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>336</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '210 kcal', product_comment = '써브웨이 최초의 코리안 스타일 샐러드! &lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu049.png';</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>336</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '165 kcal', product_comment = '훈연한 미국 스타일의 풀드 포크 바비큐가 가득 올라간 풍미 가득한 샐러드', product_image = 'menu050.png';</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>336</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '144 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해진 완벽한 앙상블', product_image = 'menu051.png';</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>336</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '152 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스 토핑으로 더 풍성한 샐러드', product_image = 'menu052.png';</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>336</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T™', product_kcal = '226 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T. 샐러드', product_image = 'menu053.png';</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>336</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '153 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu054.png';</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>336</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '103 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu055.png';</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>336</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '153 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu056.png';</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>336</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '99.5 kcal', product_comment = '기본 중에 기본! 풍부한 햄 토핑 가득 샐러드', product_image = 'menu057.png';</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>336</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '254 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu058.png';</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>336</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite™', product_kcal = '46.7 kcal', product_comment = '7가지 야채만으로도 깔끔한 조화! 기본에 충실한 베지 샐러드', product_image = 'menu059.png';</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>336</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu060.png';</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>336</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu061.png';</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>336</v>
       </c>
@@ -4876,7 +4877,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨 비츠', product_eng_name = 'Bacon Bits', product_kcal = '', product_comment = '짭쪼름한 베이컨 비츠로 맛의 화룡점정을!&lt;br&gt;15cm : 1,500원 / 30cm :3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu062.png';</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu063.png';</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>336</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu064.png';</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>336</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu065.png';</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>336</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu066.png';</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>336</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu067.png';</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>336</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu068.png';</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>337</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '햄, 에그&amp;amp;치즈', product_eng_name = 'Ham, Egg &amp;amp; Cheese', product_kcal = '319 kcal', product_comment = '푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 야채가 포함되지 않습니다.', product_image = 'menu069.png';</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>337</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '웨스턴, 에그 &amp;amp; 치즈', product_eng_name = 'Western, Egg &amp;amp; Cheese', product_kcal = '315 kcal', product_comment = '토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 토마토, 피망, 양파 이외의 야채가 포함되지 않습니다.', product_image = 'menu070.png';</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>337</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '햄, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Ham, Egg &amp;amp; Cheese Wrap', product_kcal = '288 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu071.png';</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>337</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '웨스턴, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Western, Egg &amp;amp; Cheese Wrap', product_kcal = '298 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu072.png';</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>338</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073.png';</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>338</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074.png';</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>338</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075.png';</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>338</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076.png';</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>338</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077.png';</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>338</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078.png';</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>338</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079.png';</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>338</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080.png';</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>338</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081.png';</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>338</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082.png';</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>338</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083.png';</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>338</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084.png';</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>338</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085.png';</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>338</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086.png';</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>338</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>insert into product set product_kind = '05', product_article = '00', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087.png';</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '프레쉬 파티플래터', product_eng_name = 'Fresh Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 햄, 참치, 에그마요, 클럽으로&lt;br&gt;구성된 어디서든 신선하게 즐길 수 있는&lt;br&gt;파티플래터', product_image = 'menu088.png';</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>339</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '베스트 파티플래터', product_eng_name = 'Best Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 참치, 스파이시 이탈리안, 이탈리안 비엠티,&lt;br&gt;써브웨이 클럽으로 구성된 모두의 입맛을&lt;br&gt;만족시키는 베스트 파티플래터', product_image = 'menu089.png';</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>339</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 90cm', product_eng_name = 'Giant Sub 3feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu090.png';</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>339</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 180cm', product_eng_name = 'Giant Sub 6feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu091.png';</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>339</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키박스', product_eng_name = 'Cookie box', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (12개입)', product_image = 'menu092.png';</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>339</v>
       </c>
@@ -5804,7 +5805,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94"/>
+  <autoFilter ref="A1:D94" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5812,19 +5813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>336</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>insert into article set article_code = '03', article_name = '프리미엄';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>insert into article set article_code = '02', article_name = '프레쉬&amp;라이트';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>334</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>insert into article set article_code = '01', article_name = '클래식';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>338</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>insert into article set article_code = '05', article_name = '추가선택';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>339</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>insert into article set article_code = '06', article_name = '시그니처랩';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>340</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>insert into article set article_code = '08', article_name = '미니랩';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>insert into article set article_code = '04', article_name = '신제품';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>342</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>insert into article set article_code = '09', article_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>343</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>insert into article set article_code = '10', article_name = '랩';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>341</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>insert into article set article_code = '00', article_name = '';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>340</v>
       </c>
@@ -5960,19 +5961,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>334</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>insert into kind set kind_code = '01', kind_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>insert into kind set kind_code = '02', kind_name = '랩기타';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>336</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>insert into kind set kind_code = '03', kind_name = '샐러드';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>insert into kind set kind_code = '04', kind_name = '아침메뉴';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>insert into kind set kind_code = '05', kind_name = '스마일썹';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>

--- a/subway.xlsx
+++ b/subway.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-spring\subway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_spring\subway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8DCA8D-B123-47DA-A978-84160BA6CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="484">
   <si>
     <t>aaaa1@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1448,104 +1447,148 @@
     <t>/menu</t>
   </si>
   <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>/use/subwayuse</t>
+  </si>
+  <si>
+    <t>/use/groupuse</t>
+  </si>
+  <si>
+    <t>/use/material</t>
+  </si>
+  <si>
+    <t>/use/appuse</t>
+  </si>
+  <si>
+    <t>/news</t>
+  </si>
+  <si>
+    <t>/news/event</t>
+  </si>
+  <si>
+    <t>/news/notice</t>
+  </si>
+  <si>
+    <t>/news/advertisement</t>
+  </si>
+  <si>
+    <t>/story</t>
+  </si>
+  <si>
+    <t>/story/history</t>
+  </si>
+  <si>
+    <t>/story/promise</t>
+  </si>
+  <si>
+    <t>/story/socialcontribution</t>
+  </si>
+  <si>
+    <t>/story/artsupport</t>
+  </si>
+  <si>
+    <t>/story/storefind</t>
+  </si>
+  <si>
+    <t>/store</t>
+  </si>
+  <si>
+    <t>/store/franchise</t>
+  </si>
+  <si>
+    <t>/store/faq</t>
+  </si>
+  <si>
+    <t>/store/membership</t>
+  </si>
+  <si>
+    <t>/store/branch</t>
+  </si>
+  <si>
+    <t>/store/business</t>
+  </si>
+  <si>
+    <t>/order</t>
+  </si>
+  <si>
+    <t>/order/fast</t>
+  </si>
+  <si>
+    <t>/order/home</t>
+  </si>
+  <si>
+    <t>/order/grouporder</t>
+  </si>
+  <si>
+    <t>/menu/sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/menu/rap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/menu/salad</t>
-  </si>
-  <si>
-    <t>/menu/morningmenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/menu/smilesup</t>
-  </si>
-  <si>
-    <t>/menu/groupmenu</t>
-  </si>
-  <si>
-    <t>/user</t>
-  </si>
-  <si>
-    <t>/use/subwayuse</t>
-  </si>
-  <si>
-    <t>/use/groupuse</t>
-  </si>
-  <si>
-    <t>/use/material</t>
-  </si>
-  <si>
-    <t>/use/appuse</t>
-  </si>
-  <si>
-    <t>/news</t>
-  </si>
-  <si>
-    <t>/news/event</t>
-  </si>
-  <si>
-    <t>/news/notice</t>
-  </si>
-  <si>
-    <t>/news/advertisement</t>
-  </si>
-  <si>
-    <t>/story</t>
-  </si>
-  <si>
-    <t>/story/history</t>
-  </si>
-  <si>
-    <t>/story/promise</t>
-  </si>
-  <si>
-    <t>/story/socialcontribution</t>
-  </si>
-  <si>
-    <t>/story/artsupport</t>
-  </si>
-  <si>
-    <t>/story/storefind</t>
-  </si>
-  <si>
-    <t>/store</t>
-  </si>
-  <si>
-    <t>/store/franchise</t>
-  </si>
-  <si>
-    <t>/store/faq</t>
-  </si>
-  <si>
-    <t>/store/membership</t>
-  </si>
-  <si>
-    <t>/store/branch</t>
-  </si>
-  <si>
-    <t>/store/business</t>
-  </si>
-  <si>
-    <t>/order</t>
-  </si>
-  <si>
-    <t>/order/fast</t>
-  </si>
-  <si>
-    <t>/order/home</t>
-  </si>
-  <si>
-    <t>/order/grouporder</t>
-  </si>
-  <si>
-    <t>/menu/sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/catering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일썹</t>
+  </si>
+  <si>
+    <t>스마일썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1953,18 +1996,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="71.69921875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2019,7 @@
         <v>insert into user set  user_email = 'aaaa1@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2031,7 @@
         <v>insert into user set  user_email = 'aaaa2@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2000,7 +2043,7 @@
         <v>insert into user set  user_email = 'aaaa3@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2055,7 @@
         <v>insert into user set  user_email = 'aaaa4@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2067,7 @@
         <v>insert into user set  user_email = 'aaaa5@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2079,7 @@
         <v>insert into user set  user_email = 'aaaa6@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2091,7 @@
         <v>insert into user set  user_email = 'aaaa7@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2103,7 @@
         <v>insert into user set  user_email = 'aaaa8@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2115,7 @@
         <v>insert into user set  user_email = 'aaaa9@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2127,7 @@
         <v>insert into user set  user_email = 'aaaa10@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2139,7 @@
         <v>insert into user set  user_email = 'aaaa11@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2108,7 +2151,7 @@
         <v>insert into user set  user_email = 'aaaa12@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2163,7 @@
         <v>insert into user set  user_email = 'aaaa13@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2132,7 +2175,7 @@
         <v>insert into user set  user_email = 'aaaa14@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2144,7 +2187,7 @@
         <v>insert into user set  user_email = 'aaaa15@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2199,7 @@
         <v>insert into user set  user_email = 'aaaa16@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2211,7 @@
         <v>insert into user set  user_email = 'aaaa17@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2180,7 +2223,7 @@
         <v>insert into user set  user_email = 'aaaa18@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2192,7 +2235,7 @@
         <v>insert into user set  user_email = 'aaaa19@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2207,47 +2250,48 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="114.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2260,12 +2304,15 @@
       <c r="D1" t="s">
         <v>442</v>
       </c>
-      <c r="E1" t="str">
-        <f>"insert into menu set menu_large_category = '"&amp;A1&amp;"', menu_small_category = '"&amp;B1&amp;"', menu_name =  '"&amp;C1&amp;"', menu_url = '"&amp;D1&amp;"';"</f>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'main', menu_name =  '메뉴소개', menu_url = '/menu';</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E1" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"insert into menu set menu_large_category = '"&amp;A1&amp;"', menu_small_category = '"&amp;B1&amp;"', menu_name =  '"&amp;C1&amp;"', menu_url = '"&amp;D1&amp;"', menu_kind = '"&amp;E1&amp;"';"</f>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'main', menu_name =  '메뉴소개', menu_url = '/menu', menu_kind = '00';</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -2276,14 +2323,17 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E32" si="0">"insert into menu set menu_large_category = '"&amp;A2&amp;"', menu_small_category = '"&amp;B2&amp;"', menu_name =  '"&amp;C2&amp;"', menu_url = '"&amp;D2&amp;"';"</f>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샌드위치', menu_url = '/menu/sandwich';</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="0">"insert into menu set menu_large_category = '"&amp;A2&amp;"', menu_small_category = '"&amp;B2&amp;"', menu_name =  '"&amp;C2&amp;"', menu_url = '"&amp;D2&amp;"', menu_kind = '"&amp;E2&amp;"';"</f>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샌드위치', menu_url = '/menu/sandwich', menu_kind = '01';</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2294,14 +2344,17 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '랩ㆍ기타', menu_url = '/menu/rap';</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '랩ㆍ기타', menu_url = '/menu/rap', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2312,14 +2365,17 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샐러드', menu_url = '/menu/salad';</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>470</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샐러드', menu_url = '/menu/salad', menu_kind = '03';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2330,14 +2386,17 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '아침메뉴', menu_url = '/menu/morningmenu';</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '아침메뉴', menu_url = '/menu/morning', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2348,14 +2407,17 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '스마일 썹', menu_url = '/menu/smilesup';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '스마일 썹', menu_url = '/menu/smilesup', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2366,14 +2428,17 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>447</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '단체메뉴', menu_url = '/menu/groupmenu';</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '단체메뉴', menu_url = '/menu/catering', menu_kind = '06';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2384,14 +2449,17 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'main', menu_name =  '이용방법', menu_url = '/user';</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'main', menu_name =  '이용방법', menu_url = '/user', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2402,14 +2470,17 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '써브웨이 이용방법', menu_url = '/use/subwayuse';</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '써브웨이 이용방법', menu_url = '/use/subwayuse', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2420,14 +2491,17 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '단체메뉴 이용방법', menu_url = '/use/groupuse';</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '단체메뉴 이용방법', menu_url = '/use/groupuse', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2438,14 +2512,17 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '신선한 재료 소개', menu_url = '/use/material';</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>446</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '신선한 재료 소개', menu_url = '/use/material', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2456,14 +2533,17 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>452</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  'App 이용방법', menu_url = '/use/appuse';</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  'App 이용방법', menu_url = '/use/appuse', menu_kind = '02';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2474,14 +2554,17 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'main', menu_name =  '새소식', menu_url = '/news';</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'main', menu_name =  '새소식', menu_url = '/news', menu_kind = '03';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2492,14 +2575,17 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>454</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '이벤트ㆍ프로모션', menu_url = '/news/event';</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>449</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '이벤트ㆍ프로모션', menu_url = '/news/event', menu_kind = '03';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2510,14 +2596,17 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>455</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '뉴스ㆍ공지사항', menu_url = '/news/notice';</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '뉴스ㆍ공지사항', menu_url = '/news/notice', menu_kind = '03';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2528,14 +2617,17 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '광고영상', menu_url = '/news/advertisement';</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '광고영상', menu_url = '/news/advertisement', menu_kind = '03';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -2546,14 +2638,17 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'main', menu_name =  '써브웨이', menu_url = '/story';</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>452</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'main', menu_name =  '써브웨이', menu_url = '/story', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2564,14 +2659,17 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 역사', menu_url = '/story/history';</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 역사', menu_url = '/story/history', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2582,14 +2680,17 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 약속', menu_url = '/story/promise';</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 약속', menu_url = '/story/promise', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2600,14 +2701,17 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 사회공헌', menu_url = '/story/socialcontribution';</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 사회공헌', menu_url = '/story/socialcontribution', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2618,14 +2722,17 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '샌드위치 아티스트 지원', menu_url = '/story/artsupport';</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '샌드위치 아티스트 지원', menu_url = '/story/artsupport', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2636,14 +2743,17 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>462</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '매장찾기', menu_url = '/story/storefind';</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '매장찾기', menu_url = '/story/storefind', menu_kind = '04';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2654,14 +2764,17 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'main', menu_name =  '가맹점', menu_url = '/store';</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>458</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'main', menu_name =  '가맹점', menu_url = '/store', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -2672,14 +2785,17 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '써브웨이 프랜차이즈', menu_url = '/store/franchise';</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '써브웨이 프랜차이즈', menu_url = '/store/franchise', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2690,14 +2806,17 @@
         <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>465</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹관련 FAQ', menu_url = '/store/faq';</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>460</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹관련 FAQ', menu_url = '/store/faq', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2708,14 +2827,17 @@
         <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹신청ㆍ문의', menu_url = '/store/membership';</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹신청ㆍ문의', menu_url = '/store/membership', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2726,14 +2848,17 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>467</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '지사안내', menu_url = '/store/branch';</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>462</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '지사안내', menu_url = '/store/branch', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2744,14 +2869,17 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>468</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '사업설명회', menu_url = '/store/business';</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '사업설명회', menu_url = '/store/business', menu_kind = '05';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2762,14 +2890,17 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>469</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'main', menu_name =  '온라인 주문', menu_url = '/order';</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'main', menu_name =  '온라인 주문', menu_url = '/order', menu_kind = '06';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -2780,14 +2911,17 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>470</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'FAST-SUB', menu_url = '/order/fast';</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'FAST-SUB', menu_url = '/order/fast', menu_kind = '06';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -2798,14 +2932,17 @@
         <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>471</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'HOME-SUB', menu_url = '/order/home';</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'HOME-SUB', menu_url = '/order/home', menu_kind = '06';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2816,41 +2953,45 @@
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>472</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  '단체주문', menu_url = '/order/grouporder';</v>
+        <v>467</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  '단체주문', menu_url = '/order/grouporder', menu_kind = '06';</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="27.8984375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>437</v>
       </c>
@@ -2864,7 +3005,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -2897,7 +3038,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프 아보카도', product_eng_name = 'Shrimp Avocado', product_kcal = '297 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu001.png';</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>334</v>
       </c>
@@ -2930,7 +3071,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨 아보카도', product_eng_name = 'Roast Chicken Avocado', product_kcal = '356 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu002.png';</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>334</v>
       </c>
@@ -2963,7 +3104,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그 슬라이스 아보카도', product_eng_name = 'Egg slice Avocado', product_kcal = '335 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu003.png';</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>334</v>
       </c>
@@ -2996,7 +3137,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '279 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샌드위치를 입안 가득 즐겨보세요.', product_image = 'menu004.png';</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>334</v>
       </c>
@@ -3029,7 +3170,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '이탈리안 비엠티 썹픽', product_eng_name = 'Italian B.M.T.™ SUBPICK', product_kcal = '548 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 파마산 오레가노/ 치즈 : 모차렐라 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 스위트 어니언 &amp;amp; 랜치', product_image = 'menu005.png';</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>334</v>
       </c>
@@ -3062,7 +3203,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크&amp;amp;치즈 썹픽', product_eng_name = 'Steak &amp;amp; Cheese SUBPICK', product_kcal = '507 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 마요네즈 &amp;amp; 사우스웨스트', product_image = 'menu006.png';</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>334</v>
       </c>
@@ -3095,7 +3236,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '로티세리 바비큐 치킨 썹픽', product_eng_name = 'Rotisserie Barbecue Chicken SUBPICK', product_kcal = '463 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망,양파,오이/ 소스 : 랜치 &amp;amp; 스위트 칠리', product_image = 'menu007.png';</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>334</v>
       </c>
@@ -3128,7 +3269,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '355 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미가 입안 한가득', product_image = 'menu008.png';</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>334</v>
       </c>
@@ -3161,7 +3302,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '355 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu009.png';</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>334</v>
       </c>
@@ -3194,7 +3335,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '245 kcal', product_comment = '탱글한 쉬림프에 이국적인 시즈닝을 더해 색다른 매콤함을 만나보세요!', product_image = 'menu010.png';</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>334</v>
       </c>
@@ -3227,7 +3368,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '241 kcal', product_comment = '탱글한 쉬림프 5마리가 그대로, 신선하고 담백한 쉬림프의 맛 그대로 즐겨보세요!', product_image = 'menu011.png';</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>334</v>
       </c>
@@ -3260,7 +3401,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '300 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu012.png';</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>334</v>
       </c>
@@ -3293,7 +3434,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '327 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득. &lt;br&gt;손으로 찢어 더욱 부드러운 치킨의 혁명', product_image = 'menu013.png';</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>334</v>
       </c>
@@ -3326,7 +3467,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '372 kcal', product_comment = '써브웨이의 코리안 스타일 샌드위치!&lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu014.png';</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>334</v>
       </c>
@@ -3359,7 +3500,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '327 kcal', product_comment = '미국 스타일의 풀드 포크 바비큐가 가득 들어간 샌드위치', product_image = 'menu015.png';</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>334</v>
       </c>
@@ -3392,7 +3533,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '299 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해 완벽해진 조화를 즐겨보세요!', product_image = 'menu016.png';</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>334</v>
       </c>
@@ -3425,7 +3566,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '314 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스와의 환상적인 만남', product_image = 'menu017.png';</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>334</v>
       </c>
@@ -3458,7 +3599,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '464 kcal', product_comment = '페퍼로니 &amp;amp; 살라미가 입안 가득, 페퍼로니의 부드러운 매콤함을 만나보세요!', product_image = 'menu018.png';</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>334</v>
       </c>
@@ -3491,7 +3632,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T.™', product_kcal = '388 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T.', product_image = 'menu019.png';</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>334</v>
       </c>
@@ -3524,7 +3665,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '300 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu020.png';</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>334</v>
       </c>
@@ -3557,7 +3698,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '265 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu021.png';</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>334</v>
       </c>
@@ -3590,7 +3731,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '316 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu022.png';</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>334</v>
       </c>
@@ -3623,7 +3764,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '262 kcal', product_comment = '풍부한 햄이 만들어내는 담백함을 입 안 가득 즐겨보세요!', product_image = 'menu023.png';</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>334</v>
       </c>
@@ -3656,7 +3797,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '416 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu024.png';</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>334</v>
       </c>
@@ -3689,7 +3830,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite', product_kcal = '209 kcal', product_comment = '갓 구운 빵과 신선한 8가지 야채로 즐기는 깔끔한 한끼', product_image = 'menu025.png';</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>334</v>
       </c>
@@ -3719,7 +3860,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu026.png';</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>334</v>
       </c>
@@ -3749,7 +3890,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu027.png';</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>334</v>
       </c>
@@ -3779,7 +3920,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu028.png';</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>334</v>
       </c>
@@ -3809,7 +3950,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu029.png';</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>334</v>
       </c>
@@ -3839,7 +3980,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu030.png';</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>334</v>
       </c>
@@ -3869,7 +4010,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu031.png';</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>334</v>
       </c>
@@ -3899,7 +4040,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu032.png';</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>334</v>
       </c>
@@ -3929,7 +4070,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu033.png';</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>335</v>
       </c>
@@ -3962,7 +4103,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '스테이크 &amp;amp; 치즈 아보카도 랩', product_eng_name = 'Steak &amp;amp; Cheese Avocado Wrap', product_kcal = '478 kcal', product_comment = '육즙 가득 스테이크에 프레쉬함을 더해줄&lt;br&gt;아보카도와 슈레드치즈 그리고&lt;br&gt;모차렐라치즈까지!&lt;br&gt;최상의 야채와 소스 조합으로 탄생한&lt;br&gt;스테이크 &amp;amp; 치즈 아보카도 랩!', product_image = 'menu034.png';</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>335</v>
       </c>
@@ -3995,7 +4136,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '쉬림프 에그마요 랩', product_eng_name = 'Shrimp Egg Mayo Wrap', product_kcal = '516 kcal', product_comment = '고소한 에그마요와 탱글한 통새우의 만남, 부드럽고 담백한 조화를 즐겨보세요! &lt;br&gt;&lt;br&gt;* 일부매장에 한하여 그릴드 랩으로 제공되며, 메뉴 특성상 양상추는 제외, 에그마요는 에그지단으로 변경되어 제공됩니다.', product_image = 'menu035.png';</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>335</v>
       </c>
@@ -4028,7 +4169,7 @@
         <v>insert into product set product_kind = '02', product_article = '07', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu036.png';</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>336</v>
       </c>
@@ -4061,7 +4202,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프 아보카도 샐러드', product_eng_name = 'Shrimp Avocado Salad', product_kcal = '136 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu037.png';</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>336</v>
       </c>
@@ -4094,7 +4235,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨 아보카도 샐러드', product_eng_name = 'Roast Chicken Avocado Salad', product_kcal = '195 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu038.png';</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>336</v>
       </c>
@@ -4127,7 +4268,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그 슬라이스 아보카도 샐러드', product_eng_name = 'Egg Slice Avocado Salad', product_kcal = '173 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu039.png';</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>336</v>
       </c>
@@ -4160,7 +4301,7 @@
         <v>insert into product set product_kind = '03', product_article = '04', product_name =  '미니 로티세리 치킨 샐러드', product_eng_name = 'Mini Rotisserie Chicken Salad', product_kcal = '42 kcal', product_comment = '신선함과 간편함을 한 컵에 담아, 가볍고 건강하게 즐기는 미니 샐러드', product_image = 'menu040.png';</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>336</v>
       </c>
@@ -4193,7 +4334,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '117 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샐러드를 만나보세요.', product_image = 'menu041.png';</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>336</v>
       </c>
@@ -4226,7 +4367,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '83 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 스파이시 쉬림프를 만나보세요!', product_image = 'menu042.png';</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>336</v>
       </c>
@@ -4259,7 +4400,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '302 kcal', product_comment = '살라미, 페퍼로니가 입안 한가득! 진짜 이탈리아의 맛 가득한 샐러드', product_image = 'menu043.png';</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>336</v>
       </c>
@@ -4292,7 +4433,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '193 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미 가득 스테이크 &amp;amp; 치즈 샐러드!', product_image = 'menu044.png';</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>336</v>
       </c>
@@ -4325,7 +4466,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '200 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu045.png';</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>336</v>
       </c>
@@ -4358,7 +4499,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '79 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 쉬림프를 만나보세요.', product_image = 'menu046.png';</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>336</v>
       </c>
@@ -4391,7 +4532,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '138 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu047.png';</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>336</v>
       </c>
@@ -4424,7 +4565,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '165 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득.&lt;br&gt;손으로 찢어 더욱 부드러운 치킨이 샐러드에 쏙! ', product_image = 'menu048.png';</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>336</v>
       </c>
@@ -4457,7 +4598,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '210 kcal', product_comment = '써브웨이 최초의 코리안 스타일 샐러드! &lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu049.png';</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>336</v>
       </c>
@@ -4490,7 +4631,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '165 kcal', product_comment = '훈연한 미국 스타일의 풀드 포크 바비큐가 가득 올라간 풍미 가득한 샐러드', product_image = 'menu050.png';</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>336</v>
       </c>
@@ -4523,7 +4664,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '144 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해진 완벽한 앙상블', product_image = 'menu051.png';</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>336</v>
       </c>
@@ -4556,7 +4697,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '152 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스 토핑으로 더 풍성한 샐러드', product_image = 'menu052.png';</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>336</v>
       </c>
@@ -4589,7 +4730,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T™', product_kcal = '226 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T. 샐러드', product_image = 'menu053.png';</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>336</v>
       </c>
@@ -4622,7 +4763,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '153 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu054.png';</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>336</v>
       </c>
@@ -4655,7 +4796,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '103 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu055.png';</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>336</v>
       </c>
@@ -4688,7 +4829,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '153 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu056.png';</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>336</v>
       </c>
@@ -4721,7 +4862,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '99.5 kcal', product_comment = '기본 중에 기본! 풍부한 햄 토핑 가득 샐러드', product_image = 'menu057.png';</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>336</v>
       </c>
@@ -4754,7 +4895,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '254 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu058.png';</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>336</v>
       </c>
@@ -4787,7 +4928,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite™', product_kcal = '46.7 kcal', product_comment = '7가지 야채만으로도 깔끔한 조화! 기본에 충실한 베지 샐러드', product_image = 'menu059.png';</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>336</v>
       </c>
@@ -4817,7 +4958,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu060.png';</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>336</v>
       </c>
@@ -4847,7 +4988,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu061.png';</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>336</v>
       </c>
@@ -4877,7 +5018,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨 비츠', product_eng_name = 'Bacon Bits', product_kcal = '', product_comment = '짭쪼름한 베이컨 비츠로 맛의 화룡점정을!&lt;br&gt;15cm : 1,500원 / 30cm :3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu062.png';</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -4907,7 +5048,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu063.png';</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>336</v>
       </c>
@@ -4937,7 +5078,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu064.png';</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>336</v>
       </c>
@@ -4967,7 +5108,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu065.png';</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>336</v>
       </c>
@@ -4997,7 +5138,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu066.png';</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>336</v>
       </c>
@@ -5027,7 +5168,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu067.png';</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>336</v>
       </c>
@@ -5057,7 +5198,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu068.png';</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>337</v>
       </c>
@@ -5090,7 +5231,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '햄, 에그&amp;amp;치즈', product_eng_name = 'Ham, Egg &amp;amp; Cheese', product_kcal = '319 kcal', product_comment = '푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 야채가 포함되지 않습니다.', product_image = 'menu069.png';</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>337</v>
       </c>
@@ -5123,7 +5264,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '웨스턴, 에그 &amp;amp; 치즈', product_eng_name = 'Western, Egg &amp;amp; Cheese', product_kcal = '315 kcal', product_comment = '토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 토마토, 피망, 양파 이외의 야채가 포함되지 않습니다.', product_image = 'menu070.png';</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>337</v>
       </c>
@@ -5156,7 +5297,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '햄, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Ham, Egg &amp;amp; Cheese Wrap', product_kcal = '288 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu071.png';</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>337</v>
       </c>
@@ -5189,7 +5330,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '웨스턴, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Western, Egg &amp;amp; Cheese Wrap', product_kcal = '298 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu072.png';</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>338</v>
       </c>
@@ -5197,7 +5338,10 @@
         <v>248</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D74" t="s">
+        <v>481</v>
       </c>
       <c r="E74" t="s">
         <v>244</v>
@@ -5216,10 +5360,10 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073.png';</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073.png';</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>338</v>
       </c>
@@ -5227,7 +5371,10 @@
         <v>248</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D75" t="s">
+        <v>481</v>
       </c>
       <c r="E75" t="s">
         <v>249</v>
@@ -5246,10 +5393,10 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074.png';</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074.png';</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>338</v>
       </c>
@@ -5257,7 +5404,10 @@
         <v>248</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
+        <v>481</v>
       </c>
       <c r="E76" t="s">
         <v>253</v>
@@ -5276,10 +5426,10 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075.png';</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075.png';</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>338</v>
       </c>
@@ -5287,7 +5437,10 @@
         <v>248</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D77" t="s">
+        <v>481</v>
       </c>
       <c r="E77" t="s">
         <v>257</v>
@@ -5306,10 +5459,10 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076.png';</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076.png';</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>338</v>
       </c>
@@ -5317,7 +5470,10 @@
         <v>248</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D78" t="s">
+        <v>481</v>
       </c>
       <c r="E78" t="s">
         <v>260</v>
@@ -5336,10 +5492,10 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077.png';</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077.png';</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>338</v>
       </c>
@@ -5347,7 +5503,10 @@
         <v>248</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D79" t="s">
+        <v>481</v>
       </c>
       <c r="E79" t="s">
         <v>262</v>
@@ -5366,10 +5525,10 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078.png';</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078.png';</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>338</v>
       </c>
@@ -5377,7 +5536,10 @@
         <v>248</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D80" t="s">
+        <v>481</v>
       </c>
       <c r="E80" t="s">
         <v>265</v>
@@ -5396,10 +5558,10 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079.png';</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079.png';</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>338</v>
       </c>
@@ -5407,7 +5569,10 @@
         <v>248</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D81" t="s">
+        <v>481</v>
       </c>
       <c r="E81" t="s">
         <v>267</v>
@@ -5426,10 +5591,10 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080.png';</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080.png';</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>338</v>
       </c>
@@ -5437,7 +5602,10 @@
         <v>248</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D82" t="s">
+        <v>481</v>
       </c>
       <c r="E82" t="s">
         <v>270</v>
@@ -5456,10 +5624,10 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081.png';</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081.png';</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>338</v>
       </c>
@@ -5467,7 +5635,10 @@
         <v>248</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D83" t="s">
+        <v>481</v>
       </c>
       <c r="E83" t="s">
         <v>273</v>
@@ -5486,10 +5657,10 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082.png';</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082.png';</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>338</v>
       </c>
@@ -5497,7 +5668,10 @@
         <v>248</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D84" t="s">
+        <v>481</v>
       </c>
       <c r="E84" t="s">
         <v>173</v>
@@ -5516,10 +5690,10 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083.png';</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083.png';</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>338</v>
       </c>
@@ -5527,7 +5701,10 @@
         <v>248</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D85" t="s">
+        <v>481</v>
       </c>
       <c r="E85" t="s">
         <v>276</v>
@@ -5546,10 +5723,10 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084.png';</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084.png';</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>338</v>
       </c>
@@ -5557,7 +5734,10 @@
         <v>248</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D86" t="s">
+        <v>481</v>
       </c>
       <c r="E86" t="s">
         <v>279</v>
@@ -5573,10 +5753,10 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085.png';</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085.png';</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>338</v>
       </c>
@@ -5584,7 +5764,10 @@
         <v>248</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D87" t="s">
+        <v>481</v>
       </c>
       <c r="E87" t="s">
         <v>282</v>
@@ -5597,10 +5780,10 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086.png';</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086.png';</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>338</v>
       </c>
@@ -5608,7 +5791,10 @@
         <v>248</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>341</v>
+        <v>480</v>
+      </c>
+      <c r="D88" t="s">
+        <v>482</v>
       </c>
       <c r="E88" t="s">
         <v>284</v>
@@ -5621,10 +5807,10 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '00', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087.png';</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087.png';</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>339</v>
       </c>
@@ -5654,7 +5840,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '프레쉬 파티플래터', product_eng_name = 'Fresh Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 햄, 참치, 에그마요, 클럽으로&lt;br&gt;구성된 어디서든 신선하게 즐길 수 있는&lt;br&gt;파티플래터', product_image = 'menu088.png';</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>339</v>
       </c>
@@ -5684,7 +5870,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '베스트 파티플래터', product_eng_name = 'Best Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 참치, 스파이시 이탈리안, 이탈리안 비엠티,&lt;br&gt;써브웨이 클럽으로 구성된 모두의 입맛을&lt;br&gt;만족시키는 베스트 파티플래터', product_image = 'menu089.png';</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>339</v>
       </c>
@@ -5714,7 +5900,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 90cm', product_eng_name = 'Giant Sub 3feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu090.png';</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>339</v>
       </c>
@@ -5744,7 +5930,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 180cm', product_eng_name = 'Giant Sub 6feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu091.png';</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>339</v>
       </c>
@@ -5774,7 +5960,7 @@
         <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키박스', product_eng_name = 'Cookie box', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (12개입)', product_image = 'menu092.png';</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>339</v>
       </c>
@@ -5805,7 +5991,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:D94"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5813,19 +5999,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>336</v>
       </c>
@@ -5837,7 +6023,7 @@
         <v>insert into article set article_code = '03', article_name = '프리미엄';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
@@ -5849,7 +6035,7 @@
         <v>insert into article set article_code = '02', article_name = '프레쉬&amp;라이트';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>334</v>
       </c>
@@ -5861,7 +6047,7 @@
         <v>insert into article set article_code = '01', article_name = '클래식';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>338</v>
       </c>
@@ -5873,7 +6059,7 @@
         <v>insert into article set article_code = '05', article_name = '추가선택';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>339</v>
       </c>
@@ -5885,7 +6071,7 @@
         <v>insert into article set article_code = '06', article_name = '시그니처랩';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>340</v>
       </c>
@@ -5897,7 +6083,7 @@
         <v>insert into article set article_code = '08', article_name = '미니랩';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
@@ -5909,7 +6095,7 @@
         <v>insert into article set article_code = '04', article_name = '신제품';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>342</v>
       </c>
@@ -5921,7 +6107,7 @@
         <v>insert into article set article_code = '09', article_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>343</v>
       </c>
@@ -5933,7 +6119,7 @@
         <v>insert into article set article_code = '10', article_name = '랩';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>341</v>
       </c>
@@ -5942,7 +6128,7 @@
         <v>insert into article set article_code = '00', article_name = '';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>340</v>
       </c>
@@ -5961,19 +6147,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>334</v>
       </c>
@@ -5985,7 +6171,7 @@
         <v>insert into kind set kind_code = '01', kind_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
@@ -5997,7 +6183,7 @@
         <v>insert into kind set kind_code = '02', kind_name = '랩기타';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>336</v>
       </c>
@@ -6009,7 +6195,7 @@
         <v>insert into kind set kind_code = '03', kind_name = '샐러드';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
@@ -6021,7 +6207,7 @@
         <v>insert into kind set kind_code = '04', kind_name = '아침메뉴';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -6033,7 +6219,7 @@
         <v>insert into kind set kind_code = '05', kind_name = '스마일썹';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>

--- a/subway.xlsx
+++ b/subway.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-spring\subway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_spring\subway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C9BF59-456A-426A-9A2D-4F744D4D667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1487,110 +1486,111 @@
     <t>/story/artsupport</t>
   </si>
   <si>
+    <t>/store</t>
+  </si>
+  <si>
+    <t>/store/franchise</t>
+  </si>
+  <si>
+    <t>/store/faq</t>
+  </si>
+  <si>
+    <t>/store/membership</t>
+  </si>
+  <si>
+    <t>/store/branch</t>
+  </si>
+  <si>
+    <t>/store/business</t>
+  </si>
+  <si>
+    <t>/order</t>
+  </si>
+  <si>
+    <t>/order/fast</t>
+  </si>
+  <si>
+    <t>/order/home</t>
+  </si>
+  <si>
+    <t>/order/grouporder</t>
+  </si>
+  <si>
+    <t>/menu/sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/rap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/salad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/smilesup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/morning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu/catering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일썹</t>
+  </si>
+  <si>
+    <t>스마일썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마일 썹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/story/storefind</t>
-  </si>
-  <si>
-    <t>/store</t>
-  </si>
-  <si>
-    <t>/store/franchise</t>
-  </si>
-  <si>
-    <t>/store/faq</t>
-  </si>
-  <si>
-    <t>/store/membership</t>
-  </si>
-  <si>
-    <t>/store/branch</t>
-  </si>
-  <si>
-    <t>/store/business</t>
-  </si>
-  <si>
-    <t>/order</t>
-  </si>
-  <si>
-    <t>/order/fast</t>
-  </si>
-  <si>
-    <t>/order/home</t>
-  </si>
-  <si>
-    <t>/order/grouporder</t>
-  </si>
-  <si>
-    <t>/menu/sandwich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/rap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/salad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/smilesup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/morning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/menu/catering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일썹</t>
-  </si>
-  <si>
-    <t>스마일썹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스마일 썹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1998,18 +1998,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" customWidth="1"/>
-    <col min="4" max="4" width="71.69921875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="71.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>insert into user set  user_email = 'aaaa1@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>insert into user set  user_email = 'aaaa2@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>insert into user set  user_email = 'aaaa3@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>insert into user set  user_email = 'aaaa4@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>insert into user set  user_email = 'aaaa5@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>insert into user set  user_email = 'aaaa6@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>insert into user set  user_email = 'aaaa7@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>insert into user set  user_email = 'aaaa8@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>insert into user set  user_email = 'aaaa9@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>insert into user set  user_email = 'aaaa10@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>insert into user set  user_email = 'aaaa11@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>insert into user set  user_email = 'aaaa12@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>insert into user set  user_email = 'aaaa13@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>insert into user set  user_email = 'aaaa14@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>insert into user set  user_email = 'aaaa15@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>insert into user set  user_email = 'aaaa16@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>insert into user set  user_email = 'aaaa17@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>insert into user set  user_email = 'aaaa18@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>insert into user set  user_email = 'aaaa19@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2252,48 +2252,48 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="114.19921875" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2307,14 +2307,14 @@
         <v>441</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F1" t="str">
         <f>"insert into menu set menu_large_category = '"&amp;A1&amp;"', menu_small_category = '"&amp;B1&amp;"', menu_name =  '"&amp;C1&amp;"', menu_url = '"&amp;D1&amp;"', menu_kind = '"&amp;E1&amp;"';"</f>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'main', menu_name =  '메뉴소개', menu_url = '/menu', menu_kind = '00';</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2325,17 +2325,17 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F32" si="0">"insert into menu set menu_large_category = '"&amp;A2&amp;"', menu_small_category = '"&amp;B2&amp;"', menu_name =  '"&amp;C2&amp;"', menu_url = '"&amp;D2&amp;"', menu_kind = '"&amp;E2&amp;"';"</f>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샌드위치', menu_url = '/menu/sandwich', menu_kind = '01';</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2346,17 +2346,17 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '랩ㆍ기타', menu_url = '/menu/rap', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2367,17 +2367,17 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샐러드', menu_url = '/menu/salad', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2388,17 +2388,17 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '아침메뉴', menu_url = '/menu/morning', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2406,20 +2406,20 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '스마일 썹', menu_url = '/menu/smilesup', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2430,17 +2430,17 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '단체메뉴', menu_url = '/menu/catering', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2454,14 +2454,14 @@
         <v>442</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'main', menu_name =  '이용방법', menu_url = '/user', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2475,14 +2475,14 @@
         <v>443</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '써브웨이 이용방법', menu_url = '/use/subwayuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2496,14 +2496,14 @@
         <v>444</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '단체메뉴 이용방법', menu_url = '/use/groupuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2517,14 +2517,14 @@
         <v>445</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '신선한 재료 소개', menu_url = '/use/material', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2538,14 +2538,14 @@
         <v>446</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  'App 이용방법', menu_url = '/use/appuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2559,14 +2559,14 @@
         <v>447</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'main', menu_name =  '새소식', menu_url = '/news', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2580,14 +2580,14 @@
         <v>448</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '이벤트ㆍ프로모션', menu_url = '/news/event', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2601,14 +2601,14 @@
         <v>449</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '뉴스ㆍ공지사항', menu_url = '/news/notice', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2622,14 +2622,14 @@
         <v>450</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '광고영상', menu_url = '/news/advertisement', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2643,14 +2643,14 @@
         <v>451</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'main', menu_name =  '써브웨이', menu_url = '/story', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2664,14 +2664,14 @@
         <v>452</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 역사', menu_url = '/story/history', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2685,14 +2685,14 @@
         <v>453</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 약속', menu_url = '/story/promise', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2706,14 +2706,14 @@
         <v>454</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 사회공헌', menu_url = '/story/socialcontribution', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2727,14 +2727,14 @@
         <v>455</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '샌드위치 아티스트 지원', menu_url = '/story/artsupport', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2745,17 +2745,17 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '매장찾기', menu_url = '/story/storefind', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2766,17 +2766,17 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'main', menu_name =  '가맹점', menu_url = '/store', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2787,17 +2787,17 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '써브웨이 프랜차이즈', menu_url = '/store/franchise', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2808,17 +2808,17 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹관련 FAQ', menu_url = '/store/faq', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2829,17 +2829,17 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹신청ㆍ문의', menu_url = '/store/membership', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2850,17 +2850,17 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '지사안내', menu_url = '/store/branch', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2871,17 +2871,17 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '사업설명회', menu_url = '/store/business', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2892,17 +2892,17 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'main', menu_name =  '온라인 주문', menu_url = '/order', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2913,17 +2913,17 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'FAST-SUB', menu_url = '/order/fast', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2934,17 +2934,17 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'HOME-SUB', menu_url = '/order/home', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2955,10 +2955,10 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2973,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J94"/>
   <sheetViews>
@@ -2981,20 +2981,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="27.8984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>436</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>333</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프 아보카도', product_eng_name = 'Shrimp Avocado', product_kcal = '297 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu001.png';</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨 아보카도', product_eng_name = 'Roast Chicken Avocado', product_kcal = '356 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu002.png';</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>333</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그 슬라이스 아보카도', product_eng_name = 'Egg slice Avocado', product_kcal = '335 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu003.png';</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>333</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '279 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샌드위치를 입안 가득 즐겨보세요.', product_image = 'menu004.png';</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>333</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '이탈리안 비엠티 썹픽', product_eng_name = 'Italian B.M.T.™ SUBPICK', product_kcal = '548 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 파마산 오레가노/ 치즈 : 모차렐라 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 스위트 어니언 &amp;amp; 랜치', product_image = 'menu005.png';</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크&amp;amp;치즈 썹픽', product_eng_name = 'Steak &amp;amp; Cheese SUBPICK', product_kcal = '507 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 마요네즈 &amp;amp; 사우스웨스트', product_image = 'menu006.png';</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>333</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '로티세리 바비큐 치킨 썹픽', product_eng_name = 'Rotisserie Barbecue Chicken SUBPICK', product_kcal = '463 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망,양파,오이/ 소스 : 랜치 &amp;amp; 스위트 칠리', product_image = 'menu007.png';</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>333</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '355 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미가 입안 한가득', product_image = 'menu008.png';</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>333</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '355 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu009.png';</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>333</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '245 kcal', product_comment = '탱글한 쉬림프에 이국적인 시즈닝을 더해 색다른 매콤함을 만나보세요!', product_image = 'menu010.png';</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>333</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '241 kcal', product_comment = '탱글한 쉬림프 5마리가 그대로, 신선하고 담백한 쉬림프의 맛 그대로 즐겨보세요!', product_image = 'menu011.png';</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>333</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '300 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu012.png';</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>333</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '327 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득. &lt;br&gt;손으로 찢어 더욱 부드러운 치킨의 혁명', product_image = 'menu013.png';</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>333</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '372 kcal', product_comment = '써브웨이의 코리안 스타일 샌드위치!&lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu014.png';</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>333</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '327 kcal', product_comment = '미국 스타일의 풀드 포크 바비큐가 가득 들어간 샌드위치', product_image = 'menu015.png';</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>333</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '299 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해 완벽해진 조화를 즐겨보세요!', product_image = 'menu016.png';</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>333</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '314 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스와의 환상적인 만남', product_image = 'menu017.png';</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>333</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '464 kcal', product_comment = '페퍼로니 &amp;amp; 살라미가 입안 가득, 페퍼로니의 부드러운 매콤함을 만나보세요!', product_image = 'menu018.png';</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>333</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T.™', product_kcal = '388 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T.', product_image = 'menu019.png';</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>333</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '300 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu020.png';</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>333</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '265 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu021.png';</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>333</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '316 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu022.png';</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>333</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '262 kcal', product_comment = '풍부한 햄이 만들어내는 담백함을 입 안 가득 즐겨보세요!', product_image = 'menu023.png';</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>333</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '416 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu024.png';</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>333</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>insert into product set product_kind = '01', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite', product_kcal = '209 kcal', product_comment = '갓 구운 빵과 신선한 8가지 야채로 즐기는 깔끔한 한끼', product_image = 'menu025.png';</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>333</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu026.png';</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>333</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu027.png';</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>333</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu028.png';</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>333</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu029.png';</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>333</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu030.png';</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>333</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu031.png';</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>333</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu032.png';</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>333</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>insert into product set product_kind = '01', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu033.png';</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>334</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '스테이크 &amp;amp; 치즈 아보카도 랩', product_eng_name = 'Steak &amp;amp; Cheese Avocado Wrap', product_kcal = '478 kcal', product_comment = '육즙 가득 스테이크에 프레쉬함을 더해줄&lt;br&gt;아보카도와 슈레드치즈 그리고&lt;br&gt;모차렐라치즈까지!&lt;br&gt;최상의 야채와 소스 조합으로 탄생한&lt;br&gt;스테이크 &amp;amp; 치즈 아보카도 랩!', product_image = 'menu034.png';</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>334</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>insert into product set product_kind = '02', product_article = '06', product_name =  '쉬림프 에그마요 랩', product_eng_name = 'Shrimp Egg Mayo Wrap', product_kcal = '516 kcal', product_comment = '고소한 에그마요와 탱글한 통새우의 만남, 부드럽고 담백한 조화를 즐겨보세요! &lt;br&gt;&lt;br&gt;* 일부매장에 한하여 그릴드 랩으로 제공되며, 메뉴 특성상 양상추는 제외, 에그마요는 에그지단으로 변경되어 제공됩니다.', product_image = 'menu035.png';</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>334</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>insert into product set product_kind = '02', product_article = '07', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu036.png';</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>335</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프 아보카도 샐러드', product_eng_name = 'Shrimp Avocado Salad', product_kcal = '136 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu037.png';</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>335</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨 아보카도 샐러드', product_eng_name = 'Roast Chicken Avocado Salad', product_kcal = '195 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu038.png';</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>335</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그 슬라이스 아보카도 샐러드', product_eng_name = 'Egg Slice Avocado Salad', product_kcal = '173 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu039.png';</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>insert into product set product_kind = '03', product_article = '04', product_name =  '미니 로티세리 치킨 샐러드', product_eng_name = 'Mini Rotisserie Chicken Salad', product_kcal = '42 kcal', product_comment = '신선함과 간편함을 한 컵에 담아, 가볍고 건강하게 즐기는 미니 샐러드', product_image = 'menu040.png';</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>335</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '117 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샐러드를 만나보세요.', product_image = 'menu041.png';</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>335</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '83 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 스파이시 쉬림프를 만나보세요!', product_image = 'menu042.png';</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>335</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '302 kcal', product_comment = '살라미, 페퍼로니가 입안 한가득! 진짜 이탈리아의 맛 가득한 샐러드', product_image = 'menu043.png';</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>335</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '193 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미 가득 스테이크 &amp;amp; 치즈 샐러드!', product_image = 'menu044.png';</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>335</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '200 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu045.png';</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>335</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '79 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 쉬림프를 만나보세요.', product_image = 'menu046.png';</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>335</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '138 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu047.png';</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>335</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '165 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득.&lt;br&gt;손으로 찢어 더욱 부드러운 치킨이 샐러드에 쏙! ', product_image = 'menu048.png';</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>335</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '210 kcal', product_comment = '써브웨이 최초의 코리안 스타일 샐러드! &lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu049.png';</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>335</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '165 kcal', product_comment = '훈연한 미국 스타일의 풀드 포크 바비큐가 가득 올라간 풍미 가득한 샐러드', product_image = 'menu050.png';</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>335</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '144 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해진 완벽한 앙상블', product_image = 'menu051.png';</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>335</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>insert into product set product_kind = '03', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '152 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스 토핑으로 더 풍성한 샐러드', product_image = 'menu052.png';</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>335</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T™', product_kcal = '226 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T. 샐러드', product_image = 'menu053.png';</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>335</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '153 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu054.png';</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>335</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '103 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu055.png';</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>335</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '153 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu056.png';</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '99.5 kcal', product_comment = '기본 중에 기본! 풍부한 햄 토핑 가득 샐러드', product_image = 'menu057.png';</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>335</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '254 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu058.png';</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>335</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>insert into product set product_kind = '03', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite™', product_kcal = '46.7 kcal', product_comment = '7가지 야채만으로도 깔끔한 조화! 기본에 충실한 베지 샐러드', product_image = 'menu059.png';</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>335</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu060.png';</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>335</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu061.png';</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>335</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨 비츠', product_eng_name = 'Bacon Bits', product_kcal = '', product_comment = '짭쪼름한 베이컨 비츠로 맛의 화룡점정을!&lt;br&gt;15cm : 1,500원 / 30cm :3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu062.png';</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>335</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu063.png';</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>335</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu064.png';</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>335</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu065.png';</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>335</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu066.png';</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>335</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu067.png';</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>insert into product set product_kind = '03', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu068.png';</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>336</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '햄, 에그&amp;amp;치즈', product_eng_name = 'Ham, Egg &amp;amp; Cheese', product_kcal = '319 kcal', product_comment = '푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 야채가 포함되지 않습니다.', product_image = 'menu069.png';</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>336</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>insert into product set product_kind = '04', product_article = '09', product_name =  '웨스턴, 에그 &amp;amp; 치즈', product_eng_name = 'Western, Egg &amp;amp; Cheese', product_kcal = '315 kcal', product_comment = '토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 토마토, 피망, 양파 이외의 야채가 포함되지 않습니다.', product_image = 'menu070.png';</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>336</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '햄, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Ham, Egg &amp;amp; Cheese Wrap', product_kcal = '288 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu071.png';</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>336</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>insert into product set product_kind = '04', product_article = '10', product_name =  '웨스턴, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Western, Egg &amp;amp; Cheese Wrap', product_kcal = '298 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu072.png';</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>337</v>
       </c>
@@ -5341,10 +5341,10 @@
         <v>247</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D74" t="s">
         <v>479</v>
-      </c>
-      <c r="D74" t="s">
-        <v>480</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
@@ -5366,7 +5366,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073.png';</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>337</v>
       </c>
@@ -5374,10 +5374,10 @@
         <v>247</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D75" t="s">
         <v>479</v>
-      </c>
-      <c r="D75" t="s">
-        <v>480</v>
       </c>
       <c r="E75" t="s">
         <v>248</v>
@@ -5399,7 +5399,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074.png';</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>337</v>
       </c>
@@ -5407,10 +5407,10 @@
         <v>247</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D76" t="s">
         <v>479</v>
-      </c>
-      <c r="D76" t="s">
-        <v>480</v>
       </c>
       <c r="E76" t="s">
         <v>252</v>
@@ -5432,7 +5432,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075.png';</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>337</v>
       </c>
@@ -5440,10 +5440,10 @@
         <v>247</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D77" t="s">
         <v>479</v>
-      </c>
-      <c r="D77" t="s">
-        <v>480</v>
       </c>
       <c r="E77" t="s">
         <v>256</v>
@@ -5465,7 +5465,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076.png';</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>337</v>
       </c>
@@ -5473,10 +5473,10 @@
         <v>247</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D78" t="s">
         <v>479</v>
-      </c>
-      <c r="D78" t="s">
-        <v>480</v>
       </c>
       <c r="E78" t="s">
         <v>259</v>
@@ -5498,7 +5498,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077.png';</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>337</v>
       </c>
@@ -5506,10 +5506,10 @@
         <v>247</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D79" t="s">
         <v>479</v>
-      </c>
-      <c r="D79" t="s">
-        <v>480</v>
       </c>
       <c r="E79" t="s">
         <v>261</v>
@@ -5531,7 +5531,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078.png';</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>337</v>
       </c>
@@ -5539,10 +5539,10 @@
         <v>247</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D80" t="s">
         <v>479</v>
-      </c>
-      <c r="D80" t="s">
-        <v>480</v>
       </c>
       <c r="E80" t="s">
         <v>264</v>
@@ -5564,7 +5564,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079.png';</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>337</v>
       </c>
@@ -5572,10 +5572,10 @@
         <v>247</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" t="s">
         <v>479</v>
-      </c>
-      <c r="D81" t="s">
-        <v>480</v>
       </c>
       <c r="E81" t="s">
         <v>266</v>
@@ -5597,7 +5597,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080.png';</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>337</v>
       </c>
@@ -5605,10 +5605,10 @@
         <v>247</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D82" t="s">
         <v>479</v>
-      </c>
-      <c r="D82" t="s">
-        <v>480</v>
       </c>
       <c r="E82" t="s">
         <v>269</v>
@@ -5630,7 +5630,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081.png';</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>337</v>
       </c>
@@ -5638,10 +5638,10 @@
         <v>247</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D83" t="s">
         <v>479</v>
-      </c>
-      <c r="D83" t="s">
-        <v>480</v>
       </c>
       <c r="E83" t="s">
         <v>272</v>
@@ -5663,7 +5663,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082.png';</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>337</v>
       </c>
@@ -5671,10 +5671,10 @@
         <v>247</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D84" t="s">
         <v>479</v>
-      </c>
-      <c r="D84" t="s">
-        <v>480</v>
       </c>
       <c r="E84" t="s">
         <v>172</v>
@@ -5696,7 +5696,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083.png';</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>337</v>
       </c>
@@ -5704,10 +5704,10 @@
         <v>247</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D85" t="s">
         <v>479</v>
-      </c>
-      <c r="D85" t="s">
-        <v>480</v>
       </c>
       <c r="E85" t="s">
         <v>275</v>
@@ -5729,7 +5729,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084.png';</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>337</v>
       </c>
@@ -5737,10 +5737,10 @@
         <v>247</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D86" t="s">
         <v>479</v>
-      </c>
-      <c r="D86" t="s">
-        <v>480</v>
       </c>
       <c r="E86" t="s">
         <v>278</v>
@@ -5759,7 +5759,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085.png';</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>337</v>
       </c>
@@ -5767,10 +5767,10 @@
         <v>247</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D87" t="s">
         <v>479</v>
-      </c>
-      <c r="D87" t="s">
-        <v>480</v>
       </c>
       <c r="E87" t="s">
         <v>281</v>
@@ -5786,7 +5786,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086.png';</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>337</v>
       </c>
@@ -5794,10 +5794,10 @@
         <v>247</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E88" t="s">
         <v>283</v>
@@ -5813,7 +5813,7 @@
         <v>insert into product set product_kind = '05', product_article = '11', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087.png';</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>338</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '프레쉬 파티플래터', product_eng_name = 'Fresh Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 햄, 참치, 에그마요, 클럽으로&lt;br&gt;구성된 어디서든 신선하게 즐길 수 있는&lt;br&gt;파티플래터', product_image = 'menu088.png';</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>338</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '베스트 파티플래터', product_eng_name = 'Best Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 참치, 스파이시 이탈리안, 이탈리안 비엠티,&lt;br&gt;써브웨이 클럽으로 구성된 모두의 입맛을&lt;br&gt;만족시키는 베스트 파티플래터', product_image = 'menu089.png';</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>338</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 90cm', product_eng_name = 'Giant Sub 3feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu090.png';</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>338</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 180cm', product_eng_name = 'Giant Sub 6feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu091.png';</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>338</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키박스', product_eng_name = 'Cookie box', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (12개입)', product_image = 'menu092.png';</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>338</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:D94">
     <filterColumn colId="0">
       <filters>
         <filter val="05"/>
@@ -6008,19 +6008,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>335</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>insert into article set article_code = '03', article_name = '프리미엄';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>insert into article set article_code = '02', article_name = '프레쉬&amp;라이트';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>insert into article set article_code = '01', article_name = '클래식';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>insert into article set article_code = '05', article_name = '추가선택';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>insert into article set article_code = '06', article_name = '시그니처랩';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>insert into article set article_code = '08', article_name = '미니랩';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>336</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>insert into article set article_code = '04', article_name = '신제품';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>341</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>insert into article set article_code = '09', article_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>342</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>insert into article set article_code = '10', article_name = '랩';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>340</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>insert into article set article_code = '00', article_name = '';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>339</v>
       </c>
@@ -6156,19 +6156,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>333</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>insert into kind set kind_code = '01', kind_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>insert into kind set kind_code = '02', kind_name = '랩기타';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>335</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>insert into kind set kind_code = '03', kind_name = '샐러드';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>336</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>insert into kind set kind_code = '04', kind_name = '아침메뉴';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>337</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>insert into kind set kind_code = '05', kind_name = '스마일썹';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>338</v>
       </c>

--- a/subway.xlsx
+++ b/subway.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_spring\subway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my-spring\subway\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2550291-23BA-429F-8E91-270D63AB6A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1142,285 +1143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu001.png</t>
-  </si>
-  <si>
-    <t>menu002.png</t>
-  </si>
-  <si>
-    <t>menu003.png</t>
-  </si>
-  <si>
-    <t>menu004.png</t>
-  </si>
-  <si>
-    <t>menu005.png</t>
-  </si>
-  <si>
-    <t>menu006.png</t>
-  </si>
-  <si>
-    <t>menu007.png</t>
-  </si>
-  <si>
-    <t>menu008.png</t>
-  </si>
-  <si>
-    <t>menu009.png</t>
-  </si>
-  <si>
-    <t>menu010.png</t>
-  </si>
-  <si>
-    <t>menu011.png</t>
-  </si>
-  <si>
-    <t>menu012.png</t>
-  </si>
-  <si>
-    <t>menu013.png</t>
-  </si>
-  <si>
-    <t>menu014.png</t>
-  </si>
-  <si>
-    <t>menu015.png</t>
-  </si>
-  <si>
-    <t>menu016.png</t>
-  </si>
-  <si>
-    <t>menu017.png</t>
-  </si>
-  <si>
-    <t>menu018.png</t>
-  </si>
-  <si>
-    <t>menu019.png</t>
-  </si>
-  <si>
-    <t>menu020.png</t>
-  </si>
-  <si>
-    <t>menu021.png</t>
-  </si>
-  <si>
-    <t>menu022.png</t>
-  </si>
-  <si>
-    <t>menu023.png</t>
-  </si>
-  <si>
-    <t>menu024.png</t>
-  </si>
-  <si>
-    <t>menu025.png</t>
-  </si>
-  <si>
-    <t>menu026.png</t>
-  </si>
-  <si>
-    <t>menu027.png</t>
-  </si>
-  <si>
-    <t>menu028.png</t>
-  </si>
-  <si>
-    <t>menu029.png</t>
-  </si>
-  <si>
-    <t>menu030.png</t>
-  </si>
-  <si>
-    <t>menu031.png</t>
-  </si>
-  <si>
-    <t>menu032.png</t>
-  </si>
-  <si>
-    <t>menu033.png</t>
-  </si>
-  <si>
-    <t>menu034.png</t>
-  </si>
-  <si>
-    <t>menu035.png</t>
-  </si>
-  <si>
-    <t>menu036.png</t>
-  </si>
-  <si>
-    <t>menu037.png</t>
-  </si>
-  <si>
-    <t>menu038.png</t>
-  </si>
-  <si>
-    <t>menu039.png</t>
-  </si>
-  <si>
-    <t>menu040.png</t>
-  </si>
-  <si>
-    <t>menu041.png</t>
-  </si>
-  <si>
-    <t>menu042.png</t>
-  </si>
-  <si>
-    <t>menu043.png</t>
-  </si>
-  <si>
-    <t>menu044.png</t>
-  </si>
-  <si>
-    <t>menu045.png</t>
-  </si>
-  <si>
-    <t>menu046.png</t>
-  </si>
-  <si>
-    <t>menu047.png</t>
-  </si>
-  <si>
-    <t>menu048.png</t>
-  </si>
-  <si>
-    <t>menu049.png</t>
-  </si>
-  <si>
-    <t>menu050.png</t>
-  </si>
-  <si>
-    <t>menu051.png</t>
-  </si>
-  <si>
-    <t>menu052.png</t>
-  </si>
-  <si>
-    <t>menu053.png</t>
-  </si>
-  <si>
-    <t>menu054.png</t>
-  </si>
-  <si>
-    <t>menu055.png</t>
-  </si>
-  <si>
-    <t>menu056.png</t>
-  </si>
-  <si>
-    <t>menu057.png</t>
-  </si>
-  <si>
-    <t>menu058.png</t>
-  </si>
-  <si>
-    <t>menu059.png</t>
-  </si>
-  <si>
-    <t>menu060.png</t>
-  </si>
-  <si>
-    <t>menu061.png</t>
-  </si>
-  <si>
-    <t>menu062.png</t>
-  </si>
-  <si>
-    <t>menu063.png</t>
-  </si>
-  <si>
-    <t>menu064.png</t>
-  </si>
-  <si>
-    <t>menu065.png</t>
-  </si>
-  <si>
-    <t>menu066.png</t>
-  </si>
-  <si>
-    <t>menu067.png</t>
-  </si>
-  <si>
-    <t>menu068.png</t>
-  </si>
-  <si>
-    <t>menu069.png</t>
-  </si>
-  <si>
-    <t>menu070.png</t>
-  </si>
-  <si>
-    <t>menu071.png</t>
-  </si>
-  <si>
-    <t>menu072.png</t>
-  </si>
-  <si>
-    <t>menu073.png</t>
-  </si>
-  <si>
-    <t>menu074.png</t>
-  </si>
-  <si>
-    <t>menu075.png</t>
-  </si>
-  <si>
-    <t>menu076.png</t>
-  </si>
-  <si>
-    <t>menu077.png</t>
-  </si>
-  <si>
-    <t>menu078.png</t>
-  </si>
-  <si>
-    <t>menu079.png</t>
-  </si>
-  <si>
-    <t>menu080.png</t>
-  </si>
-  <si>
-    <t>menu081.png</t>
-  </si>
-  <si>
-    <t>menu082.png</t>
-  </si>
-  <si>
-    <t>menu083.png</t>
-  </si>
-  <si>
-    <t>menu084.png</t>
-  </si>
-  <si>
-    <t>menu085.png</t>
-  </si>
-  <si>
-    <t>menu086.png</t>
-  </si>
-  <si>
-    <t>menu087.png</t>
-  </si>
-  <si>
-    <t>menu088.png</t>
-  </si>
-  <si>
-    <t>menu089.png</t>
-  </si>
-  <si>
-    <t>menu090.png</t>
-  </si>
-  <si>
-    <t>menu091.png</t>
-  </si>
-  <si>
-    <t>menu092.png</t>
-  </si>
-  <si>
-    <t>menu093.png</t>
-  </si>
-  <si>
     <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,12 +1307,291 @@
   <si>
     <t>/story/storefind</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu001</t>
+  </si>
+  <si>
+    <t>menu002</t>
+  </si>
+  <si>
+    <t>menu003</t>
+  </si>
+  <si>
+    <t>menu004</t>
+  </si>
+  <si>
+    <t>menu005</t>
+  </si>
+  <si>
+    <t>menu006</t>
+  </si>
+  <si>
+    <t>menu007</t>
+  </si>
+  <si>
+    <t>menu008</t>
+  </si>
+  <si>
+    <t>menu009</t>
+  </si>
+  <si>
+    <t>menu010</t>
+  </si>
+  <si>
+    <t>menu011</t>
+  </si>
+  <si>
+    <t>menu012</t>
+  </si>
+  <si>
+    <t>menu013</t>
+  </si>
+  <si>
+    <t>menu014</t>
+  </si>
+  <si>
+    <t>menu015</t>
+  </si>
+  <si>
+    <t>menu016</t>
+  </si>
+  <si>
+    <t>menu017</t>
+  </si>
+  <si>
+    <t>menu018</t>
+  </si>
+  <si>
+    <t>menu019</t>
+  </si>
+  <si>
+    <t>menu020</t>
+  </si>
+  <si>
+    <t>menu021</t>
+  </si>
+  <si>
+    <t>menu022</t>
+  </si>
+  <si>
+    <t>menu023</t>
+  </si>
+  <si>
+    <t>menu024</t>
+  </si>
+  <si>
+    <t>menu025</t>
+  </si>
+  <si>
+    <t>menu026</t>
+  </si>
+  <si>
+    <t>menu027</t>
+  </si>
+  <si>
+    <t>menu028</t>
+  </si>
+  <si>
+    <t>menu029</t>
+  </si>
+  <si>
+    <t>menu030</t>
+  </si>
+  <si>
+    <t>menu031</t>
+  </si>
+  <si>
+    <t>menu032</t>
+  </si>
+  <si>
+    <t>menu033</t>
+  </si>
+  <si>
+    <t>menu034</t>
+  </si>
+  <si>
+    <t>menu035</t>
+  </si>
+  <si>
+    <t>menu036</t>
+  </si>
+  <si>
+    <t>menu037</t>
+  </si>
+  <si>
+    <t>menu038</t>
+  </si>
+  <si>
+    <t>menu039</t>
+  </si>
+  <si>
+    <t>menu040</t>
+  </si>
+  <si>
+    <t>menu041</t>
+  </si>
+  <si>
+    <t>menu042</t>
+  </si>
+  <si>
+    <t>menu043</t>
+  </si>
+  <si>
+    <t>menu044</t>
+  </si>
+  <si>
+    <t>menu045</t>
+  </si>
+  <si>
+    <t>menu046</t>
+  </si>
+  <si>
+    <t>menu047</t>
+  </si>
+  <si>
+    <t>menu048</t>
+  </si>
+  <si>
+    <t>menu049</t>
+  </si>
+  <si>
+    <t>menu050</t>
+  </si>
+  <si>
+    <t>menu051</t>
+  </si>
+  <si>
+    <t>menu052</t>
+  </si>
+  <si>
+    <t>menu053</t>
+  </si>
+  <si>
+    <t>menu054</t>
+  </si>
+  <si>
+    <t>menu055</t>
+  </si>
+  <si>
+    <t>menu056</t>
+  </si>
+  <si>
+    <t>menu057</t>
+  </si>
+  <si>
+    <t>menu058</t>
+  </si>
+  <si>
+    <t>menu059</t>
+  </si>
+  <si>
+    <t>menu060</t>
+  </si>
+  <si>
+    <t>menu061</t>
+  </si>
+  <si>
+    <t>menu062</t>
+  </si>
+  <si>
+    <t>menu063</t>
+  </si>
+  <si>
+    <t>menu064</t>
+  </si>
+  <si>
+    <t>menu065</t>
+  </si>
+  <si>
+    <t>menu066</t>
+  </si>
+  <si>
+    <t>menu067</t>
+  </si>
+  <si>
+    <t>menu068</t>
+  </si>
+  <si>
+    <t>menu069</t>
+  </si>
+  <si>
+    <t>menu070</t>
+  </si>
+  <si>
+    <t>menu071</t>
+  </si>
+  <si>
+    <t>menu072</t>
+  </si>
+  <si>
+    <t>menu073</t>
+  </si>
+  <si>
+    <t>menu074</t>
+  </si>
+  <si>
+    <t>menu075</t>
+  </si>
+  <si>
+    <t>menu076</t>
+  </si>
+  <si>
+    <t>menu077</t>
+  </si>
+  <si>
+    <t>menu078</t>
+  </si>
+  <si>
+    <t>menu079</t>
+  </si>
+  <si>
+    <t>menu080</t>
+  </si>
+  <si>
+    <t>menu081</t>
+  </si>
+  <si>
+    <t>menu082</t>
+  </si>
+  <si>
+    <t>menu083</t>
+  </si>
+  <si>
+    <t>menu084</t>
+  </si>
+  <si>
+    <t>menu085</t>
+  </si>
+  <si>
+    <t>menu086</t>
+  </si>
+  <si>
+    <t>menu087</t>
+  </si>
+  <si>
+    <t>menu088</t>
+  </si>
+  <si>
+    <t>menu089</t>
+  </si>
+  <si>
+    <t>menu090</t>
+  </si>
+  <si>
+    <t>menu091</t>
+  </si>
+  <si>
+    <t>menu092</t>
+  </si>
+  <si>
+    <t>menu093</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1998,18 +1999,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="71.75" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="71.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>insert into user set  user_email = 'aaaa1@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>insert into user set  user_email = 'aaaa2@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>insert into user set  user_email = 'aaaa3@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>insert into user set  user_email = 'aaaa4@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>insert into user set  user_email = 'aaaa5@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>insert into user set  user_email = 'aaaa6@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>insert into user set  user_email = 'aaaa7@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>insert into user set  user_email = 'aaaa8@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>insert into user set  user_email = 'aaaa9@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>insert into user set  user_email = 'aaaa10@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>insert into user set  user_email = 'aaaa11@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>insert into user set  user_email = 'aaaa12@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>insert into user set  user_email = 'aaaa13@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>insert into user set  user_email = 'aaaa14@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>insert into user set  user_email = 'aaaa15@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>insert into user set  user_email = 'aaaa16@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>insert into user set  user_email = 'aaaa17@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2225,7 +2226,7 @@
         <v>insert into user set  user_email = 'aaaa18@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>insert into user set  user_email = 'aaaa19@gmail.com', user_password = '11111';</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2252,48 +2253,48 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com"/>
-    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" r:id="rId7" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId8" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A8" r:id="rId10" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A10" r:id="rId12" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A9" r:id="rId14" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A14" r:id="rId15" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A19" r:id="rId20" display="aaaa1@gmail.com" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="114.25" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2304,17 +2305,17 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>441</v>
+        <v>348</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
       <c r="F1" t="str">
         <f>"insert into menu set menu_large_category = '"&amp;A1&amp;"', menu_small_category = '"&amp;B1&amp;"', menu_name =  '"&amp;C1&amp;"', menu_url = '"&amp;D1&amp;"', menu_kind = '"&amp;E1&amp;"';"</f>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'main', menu_name =  '메뉴소개', menu_url = '/menu', menu_kind = '00';</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2325,17 +2326,17 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>373</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>472</v>
+        <v>379</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F32" si="0">"insert into menu set menu_large_category = '"&amp;A2&amp;"', menu_small_category = '"&amp;B2&amp;"', menu_name =  '"&amp;C2&amp;"', menu_url = '"&amp;D2&amp;"', menu_kind = '"&amp;E2&amp;"';"</f>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샌드위치', menu_url = '/menu/sandwich', menu_kind = '01';</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2346,17 +2347,17 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '랩ㆍ기타', menu_url = '/menu/rap', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2367,17 +2368,17 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>468</v>
+        <v>375</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '샐러드', menu_url = '/menu/salad', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2388,17 +2389,17 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>470</v>
+        <v>377</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '아침메뉴', menu_url = '/menu/morning', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2406,20 +2407,20 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>376</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '스마일 썹', menu_url = '/menu/smilesup', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2430,17 +2431,17 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'menu', menu_small_category = 'sub', menu_name =  '단체메뉴', menu_url = '/menu/catering', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2451,17 +2452,17 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'main', menu_name =  '이용방법', menu_url = '/user', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2472,17 +2473,17 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '써브웨이 이용방법', menu_url = '/use/subwayuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2493,17 +2494,17 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>351</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '단체메뉴 이용방법', menu_url = '/use/groupuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2514,17 +2515,17 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  '신선한 재료 소개', menu_url = '/use/material', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2535,17 +2536,17 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>473</v>
+        <v>380</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'use', menu_small_category = 'sub', menu_name =  'App 이용방법', menu_url = '/use/appuse', menu_kind = '02';</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2556,17 +2557,17 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'main', menu_name =  '새소식', menu_url = '/news', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2577,17 +2578,17 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '이벤트ㆍ프로모션', menu_url = '/news/event', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2598,17 +2599,17 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '뉴스ㆍ공지사항', menu_url = '/news/notice', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2619,17 +2620,17 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>474</v>
+        <v>381</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'news', menu_small_category = 'sub', menu_name =  '광고영상', menu_url = '/news/advertisement', menu_kind = '03';</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2640,17 +2641,17 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>358</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'main', menu_name =  '써브웨이', menu_url = '/story', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2661,17 +2662,17 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 역사', menu_url = '/story/history', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2682,17 +2683,17 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>453</v>
+        <v>360</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 약속', menu_url = '/story/promise', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2703,17 +2704,17 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '써브웨이 사회공헌', menu_url = '/story/socialcontribution', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2724,17 +2725,17 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '샌드위치 아티스트 지원', menu_url = '/story/artsupport', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2745,17 +2746,17 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>475</v>
+        <v>382</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'story', menu_small_category = 'sub', menu_name =  '매장찾기', menu_url = '/story/storefind', menu_kind = '04';</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2766,17 +2767,17 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>456</v>
+        <v>363</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'main', menu_name =  '가맹점', menu_url = '/store', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2787,17 +2788,17 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '써브웨이 프랜차이즈', menu_url = '/store/franchise', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2808,17 +2809,17 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>365</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹관련 FAQ', menu_url = '/store/faq', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2829,17 +2830,17 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '가맹신청ㆍ문의', menu_url = '/store/membership', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2850,17 +2851,17 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '지사안내', menu_url = '/store/branch', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2871,17 +2872,17 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>476</v>
+        <v>383</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'store', menu_small_category = 'sub', menu_name =  '사업설명회', menu_url = '/store/business', menu_kind = '05';</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2892,17 +2893,17 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>462</v>
+        <v>369</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'main', menu_name =  '온라인 주문', menu_url = '/order', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2913,17 +2914,17 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'FAST-SUB', menu_url = '/order/fast', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2934,17 +2935,17 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>insert into menu set menu_large_category = 'order', menu_small_category = 'sub', menu_name =  'HOME-SUB', menu_url = '/order/home', menu_kind = '06';</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2955,10 +2956,10 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>465</v>
+        <v>372</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>477</v>
+        <v>384</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -2973,42 +2974,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="27.875" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1"/>
     <col min="10" max="10" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>436</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>437</v>
+        <v>344</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>438</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>333</v>
       </c>
@@ -3034,14 +3034,14 @@
         <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="J2" t="str">
         <f>"insert into product set product_kind = '"&amp;A2&amp;"', product_article = '"&amp;C2&amp;"', product_name =  '"&amp;E2&amp;"', product_eng_name = '"&amp;F2&amp;"', product_kcal = '"&amp;G2&amp;"', product_comment = '"&amp;H2&amp;"', product_image = '"&amp;I2&amp;"';"</f>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프 아보카도', product_eng_name = 'Shrimp Avocado', product_kcal = '297 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu001.png';</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프 아보카도', product_eng_name = 'Shrimp Avocado', product_kcal = '297 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu001';</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
@@ -3067,14 +3067,14 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="0">"insert into product set product_kind = '"&amp;A3&amp;"', product_article = '"&amp;C3&amp;"', product_name =  '"&amp;E3&amp;"', product_eng_name = '"&amp;F3&amp;"', product_kcal = '"&amp;G3&amp;"', product_comment = '"&amp;H3&amp;"', product_image = '"&amp;I3&amp;"';"</f>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨 아보카도', product_eng_name = 'Roast Chicken Avocado', product_kcal = '356 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu002.png';</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨 아보카도', product_eng_name = 'Roast Chicken Avocado', product_kcal = '356 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu002';</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>333</v>
       </c>
@@ -3100,14 +3100,14 @@
         <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그 슬라이스 아보카도', product_eng_name = 'Egg slice Avocado', product_kcal = '335 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu003.png';</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그 슬라이스 아보카도', product_eng_name = 'Egg slice Avocado', product_kcal = '335 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu003';</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>333</v>
       </c>
@@ -3133,14 +3133,14 @@
         <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '279 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샌드위치를 입안 가득 즐겨보세요.', product_image = 'menu004.png';</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '279 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샌드위치를 입안 가득 즐겨보세요.', product_image = 'menu004';</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>333</v>
       </c>
@@ -3166,14 +3166,14 @@
         <v>299</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '이탈리안 비엠티 썹픽', product_eng_name = 'Italian B.M.T.™ SUBPICK', product_kcal = '548 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 파마산 오레가노/ 치즈 : 모차렐라 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 스위트 어니언 &amp;amp; 랜치', product_image = 'menu005.png';</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '이탈리안 비엠티 썹픽', product_eng_name = 'Italian B.M.T.™ SUBPICK', product_kcal = '548 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 파마산 오레가노/ 치즈 : 모차렐라 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 스위트 어니언 &amp;amp; 랜치', product_image = 'menu005';</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>333</v>
       </c>
@@ -3199,14 +3199,14 @@
         <v>300</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크&amp;amp;치즈 썹픽', product_eng_name = 'Steak &amp;amp; Cheese SUBPICK', product_kcal = '507 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 마요네즈 &amp;amp; 사우스웨스트', product_image = 'menu006.png';</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크&amp;amp;치즈 썹픽', product_eng_name = 'Steak &amp;amp; Cheese SUBPICK', product_kcal = '507 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망, 양파, 오이, 피클, 올리브, 할라피뇨/ 소스 : 마요네즈 &amp;amp; 사우스웨스트', product_image = 'menu006';</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>333</v>
       </c>
@@ -3232,14 +3232,14 @@
         <v>301</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '로티세리 바비큐 치킨 썹픽', product_eng_name = 'Rotisserie Barbecue Chicken SUBPICK', product_kcal = '463 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망,양파,오이/ 소스 : 랜치 &amp;amp; 스위트 칠리', product_image = 'menu007.png';</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '로티세리 바비큐 치킨 썹픽', product_eng_name = 'Rotisserie Barbecue Chicken SUBPICK', product_kcal = '463 kcal', product_comment = '써브웨이가 추천하는 베스트 조합을 한번에 주문 할 수 있는 쉽고 빠른 주문, 썹픽으로 만나보세요.&lt;br&gt;썹픽 레시피 – 빵 : 화이트/ 치즈 : 아메리칸 치즈/ 야채 : 양상추, 토마토, 피망,양파,오이/ 소스 : 랜치 &amp;amp; 스위트 칠리', product_image = 'menu007';</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>333</v>
       </c>
@@ -3265,14 +3265,14 @@
         <v>87</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '355 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미가 입안 한가득', product_image = 'menu008.png';</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '355 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미가 입안 한가득', product_image = 'menu008';</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>333</v>
       </c>
@@ -3298,14 +3298,14 @@
         <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '355 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu009.png';</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '355 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu009';</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>333</v>
       </c>
@@ -3331,14 +3331,14 @@
         <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '245 kcal', product_comment = '탱글한 쉬림프에 이국적인 시즈닝을 더해 색다른 매콤함을 만나보세요!', product_image = 'menu010.png';</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '245 kcal', product_comment = '탱글한 쉬림프에 이국적인 시즈닝을 더해 색다른 매콤함을 만나보세요!', product_image = 'menu010';</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>333</v>
       </c>
@@ -3364,14 +3364,14 @@
         <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '241 kcal', product_comment = '탱글한 쉬림프 5마리가 그대로, 신선하고 담백한 쉬림프의 맛 그대로 즐겨보세요!', product_image = 'menu011.png';</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '241 kcal', product_comment = '탱글한 쉬림프 5마리가 그대로, 신선하고 담백한 쉬림프의 맛 그대로 즐겨보세요!', product_image = 'menu011';</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>333</v>
       </c>
@@ -3397,14 +3397,14 @@
         <v>102</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '300 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu012.png';</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '300 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu012';</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>333</v>
       </c>
@@ -3430,14 +3430,14 @@
         <v>302</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '327 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득. &lt;br&gt;손으로 찢어 더욱 부드러운 치킨의 혁명', product_image = 'menu013.png';</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '327 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득. &lt;br&gt;손으로 찢어 더욱 부드러운 치킨의 혁명', product_image = 'menu013';</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>333</v>
       </c>
@@ -3463,14 +3463,14 @@
         <v>303</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '372 kcal', product_comment = '써브웨이의 코리안 스타일 샌드위치!&lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu014.png';</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '372 kcal', product_comment = '써브웨이의 코리안 스타일 샌드위치!&lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu014';</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>333</v>
       </c>
@@ -3496,14 +3496,14 @@
         <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '327 kcal', product_comment = '미국 스타일의 풀드 포크 바비큐가 가득 들어간 샌드위치', product_image = 'menu015.png';</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '327 kcal', product_comment = '미국 스타일의 풀드 포크 바비큐가 가득 들어간 샌드위치', product_image = 'menu015';</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>333</v>
       </c>
@@ -3529,14 +3529,14 @@
         <v>115</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '299 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해 완벽해진 조화를 즐겨보세요!', product_image = 'menu016.png';</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '299 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해 완벽해진 조화를 즐겨보세요!', product_image = 'menu016';</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>333</v>
       </c>
@@ -3562,14 +3562,14 @@
         <v>119</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '314 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스와의 환상적인 만남', product_image = 'menu017.png';</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '314 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스와의 환상적인 만남', product_image = 'menu017';</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>333</v>
       </c>
@@ -3595,14 +3595,14 @@
         <v>123</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '464 kcal', product_comment = '페퍼로니 &amp;amp; 살라미가 입안 가득, 페퍼로니의 부드러운 매콤함을 만나보세요!', product_image = 'menu018.png';</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '464 kcal', product_comment = '페퍼로니 &amp;amp; 살라미가 입안 가득, 페퍼로니의 부드러운 매콤함을 만나보세요!', product_image = 'menu018';</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>333</v>
       </c>
@@ -3628,14 +3628,14 @@
         <v>304</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T.™', product_kcal = '388 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T.', product_image = 'menu019.png';</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T.™', product_kcal = '388 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T.', product_image = 'menu019';</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>333</v>
       </c>
@@ -3661,14 +3661,14 @@
         <v>129</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '300 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu020.png';</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '300 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu020';</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>333</v>
       </c>
@@ -3694,14 +3694,14 @@
         <v>133</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '265 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu021.png';</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '265 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu021';</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>333</v>
       </c>
@@ -3727,14 +3727,14 @@
         <v>137</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '316 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu022.png';</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '316 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu022';</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>333</v>
       </c>
@@ -3760,14 +3760,14 @@
         <v>141</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '262 kcal', product_comment = '풍부한 햄이 만들어내는 담백함을 입 안 가득 즐겨보세요!', product_image = 'menu023.png';</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '262 kcal', product_comment = '풍부한 햄이 만들어내는 담백함을 입 안 가득 즐겨보세요!', product_image = 'menu023';</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>333</v>
       </c>
@@ -3793,14 +3793,14 @@
         <v>145</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '416 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu024.png';</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '416 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu024';</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>333</v>
       </c>
@@ -3826,14 +3826,14 @@
         <v>149</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite', product_kcal = '209 kcal', product_comment = '갓 구운 빵과 신선한 8가지 야채로 즐기는 깔끔한 한끼', product_image = 'menu025.png';</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite', product_kcal = '209 kcal', product_comment = '갓 구운 빵과 신선한 8가지 야채로 즐기는 깔끔한 한끼', product_image = 'menu025';</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>333</v>
       </c>
@@ -3856,14 +3856,14 @@
         <v>305</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu026.png';</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu026';</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>333</v>
       </c>
@@ -3886,14 +3886,14 @@
         <v>306</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu027.png';</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu027';</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>333</v>
       </c>
@@ -3916,14 +3916,14 @@
         <v>307</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu028.png';</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu028';</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>333</v>
       </c>
@@ -3946,14 +3946,14 @@
         <v>308</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu029.png';</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu029';</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>333</v>
       </c>
@@ -3976,14 +3976,14 @@
         <v>309</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu030.png';</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu030';</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>333</v>
       </c>
@@ -4006,14 +4006,14 @@
         <v>310</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu031.png';</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu031';</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>333</v>
       </c>
@@ -4036,14 +4036,14 @@
         <v>311</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu032.png';</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu032';</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>333</v>
       </c>
@@ -4066,14 +4066,14 @@
         <v>312</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu033.png';</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '01', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu033';</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>334</v>
       </c>
@@ -4099,14 +4099,14 @@
         <v>313</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '02', product_article = '06', product_name =  '스테이크 &amp;amp; 치즈 아보카도 랩', product_eng_name = 'Steak &amp;amp; Cheese Avocado Wrap', product_kcal = '478 kcal', product_comment = '육즙 가득 스테이크에 프레쉬함을 더해줄&lt;br&gt;아보카도와 슈레드치즈 그리고&lt;br&gt;모차렐라치즈까지!&lt;br&gt;최상의 야채와 소스 조합으로 탄생한&lt;br&gt;스테이크 &amp;amp; 치즈 아보카도 랩!', product_image = 'menu034.png';</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '02', product_article = '06', product_name =  '스테이크 &amp;amp; 치즈 아보카도 랩', product_eng_name = 'Steak &amp;amp; Cheese Avocado Wrap', product_kcal = '478 kcal', product_comment = '육즙 가득 스테이크에 프레쉬함을 더해줄&lt;br&gt;아보카도와 슈레드치즈 그리고&lt;br&gt;모차렐라치즈까지!&lt;br&gt;최상의 야채와 소스 조합으로 탄생한&lt;br&gt;스테이크 &amp;amp; 치즈 아보카도 랩!', product_image = 'menu034';</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>334</v>
       </c>
@@ -4132,14 +4132,14 @@
         <v>314</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '02', product_article = '06', product_name =  '쉬림프 에그마요 랩', product_eng_name = 'Shrimp Egg Mayo Wrap', product_kcal = '516 kcal', product_comment = '고소한 에그마요와 탱글한 통새우의 만남, 부드럽고 담백한 조화를 즐겨보세요! &lt;br&gt;&lt;br&gt;* 일부매장에 한하여 그릴드 랩으로 제공되며, 메뉴 특성상 양상추는 제외, 에그마요는 에그지단으로 변경되어 제공됩니다.', product_image = 'menu035.png';</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '02', product_article = '06', product_name =  '쉬림프 에그마요 랩', product_eng_name = 'Shrimp Egg Mayo Wrap', product_kcal = '516 kcal', product_comment = '고소한 에그마요와 탱글한 통새우의 만남, 부드럽고 담백한 조화를 즐겨보세요! &lt;br&gt;&lt;br&gt;* 일부매장에 한하여 그릴드 랩으로 제공되며, 메뉴 특성상 양상추는 제외, 에그마요는 에그지단으로 변경되어 제공됩니다.', product_image = 'menu035';</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>334</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
       <c r="D37" t="s">
         <v>177</v>
@@ -4165,14 +4165,14 @@
         <v>315</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '02', product_article = '07', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu036.png';</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '02', product_article = '07', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu036';</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>335</v>
       </c>
@@ -4198,14 +4198,14 @@
         <v>62</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프 아보카도 샐러드', product_eng_name = 'Shrimp Avocado Salad', product_kcal = '136 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu037.png';</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프 아보카도 샐러드', product_eng_name = 'Shrimp Avocado Salad', product_kcal = '136 kcal', product_comment = '통통한 새우에 아보카도를 더해 더욱 신선하게 한입 가득 즐겨보세요.', product_image = 'menu037';</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>335</v>
       </c>
@@ -4231,14 +4231,14 @@
         <v>66</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨 아보카도 샐러드', product_eng_name = 'Roast Chicken Avocado Salad', product_kcal = '195 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu038.png';</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨 아보카도 샐러드', product_eng_name = 'Roast Chicken Avocado Salad', product_kcal = '195 kcal', product_comment = '부드러운 닭가슴살에 아보카도를 더해 든든함을 한입 가득 즐겨보세요.', product_image = 'menu038';</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>335</v>
       </c>
@@ -4264,14 +4264,14 @@
         <v>70</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그 슬라이스 아보카도 샐러드', product_eng_name = 'Egg Slice Avocado Salad', product_kcal = '173 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu039.png';</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그 슬라이스 아보카도 샐러드', product_eng_name = 'Egg Slice Avocado Salad', product_kcal = '173 kcal', product_comment = '담백한 에그 슬라이스에 아보카도를 더해 건강함을 한입 가득 즐겨보세요.', product_image = 'menu039';</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -4297,14 +4297,14 @@
         <v>191</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '04', product_name =  '미니 로티세리 치킨 샐러드', product_eng_name = 'Mini Rotisserie Chicken Salad', product_kcal = '42 kcal', product_comment = '신선함과 간편함을 한 컵에 담아, 가볍고 건강하게 즐기는 미니 샐러드', product_image = 'menu040.png';</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '04', product_name =  '미니 로티세리 치킨 샐러드', product_eng_name = 'Mini Rotisserie Chicken Salad', product_kcal = '42 kcal', product_comment = '신선함과 간편함을 한 컵에 담아, 가볍고 건강하게 즐기는 미니 샐러드', product_image = 'menu040';</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>335</v>
       </c>
@@ -4330,14 +4330,14 @@
         <v>193</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '117 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샐러드를 만나보세요.', product_image = 'menu041.png';</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '117 kcal', product_comment = '달걀의 신선함과 담백함을 그대로 담아 맛도, 영양도 사로잡은 샐러드를 만나보세요.', product_image = 'menu041';</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>335</v>
       </c>
@@ -4363,14 +4363,14 @@
         <v>195</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '83 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 스파이시 쉬림프를 만나보세요!', product_image = 'menu042.png';</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 쉬림프', product_eng_name = 'Spicy Shrimp', product_kcal = '83 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 스파이시 쉬림프를 만나보세요!', product_image = 'menu042';</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>335</v>
       </c>
@@ -4396,14 +4396,14 @@
         <v>197</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '302 kcal', product_comment = '살라미, 페퍼로니가 입안 한가득! 진짜 이탈리아의 맛 가득한 샐러드', product_image = 'menu043.png';</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스파이시 이탈리안', product_eng_name = 'Spicy Italian', product_kcal = '302 kcal', product_comment = '살라미, 페퍼로니가 입안 한가득! 진짜 이탈리아의 맛 가득한 샐러드', product_image = 'menu043';</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>335</v>
       </c>
@@ -4429,14 +4429,14 @@
         <v>199</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '193 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미 가득 스테이크 &amp;amp; 치즈 샐러드!', product_image = 'menu044.png';</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '스테이크 &amp;amp; 치즈', product_eng_name = 'Steak &amp;amp; Cheese', product_kcal = '193 kcal', product_comment = '육즙이 쫙~풍부한 비프 스테이크의 풍미 가득 스테이크 &amp;amp; 치즈 샐러드!', product_image = 'menu044';</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>335</v>
       </c>
@@ -4462,14 +4462,14 @@
         <v>90</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '200 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu045.png';</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 베이컨 아보카도', product_eng_name = 'Chicken Bacon Avocado', product_kcal = '200 kcal', product_comment = '담백하게 닭가슴살로 만든 치킨 슬라이스와 베이컨, 부드러운 아보카도의 만남', product_image = 'menu045';</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>335</v>
       </c>
@@ -4495,14 +4495,14 @@
         <v>202</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '79 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 쉬림프를 만나보세요.', product_image = 'menu046.png';</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '쉬림프', product_eng_name = 'Shrimp', product_kcal = '79 kcal', product_comment = 'Bigger is Better, 더 커지고 맛있어진 써브웨이 New 쉬림프를 만나보세요.', product_image = 'menu046';</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>335</v>
       </c>
@@ -4528,14 +4528,14 @@
         <v>102</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '138 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu047.png';</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로스트 치킨', product_eng_name = 'Roasted Chicken', product_kcal = '138 kcal', product_comment = '오븐에 구워 담백한 저칼로리 닭가슴살의 건강한 풍미', product_image = 'menu047';</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>335</v>
       </c>
@@ -4561,14 +4561,14 @@
         <v>316</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '165 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득.&lt;br&gt;손으로 찢어 더욱 부드러운 치킨이 샐러드에 쏙! ', product_image = 'menu048.png';</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '로티세리 바비큐 치킨', product_eng_name = 'Rotisserie Barbecue Chicken', product_kcal = '165 kcal', product_comment = '촉촉한 바비큐 치킨의 풍미가득.&lt;br&gt;손으로 찢어 더욱 부드러운 치킨이 샐러드에 쏙! ', product_image = 'menu048';</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>335</v>
       </c>
@@ -4594,14 +4594,14 @@
         <v>317</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '210 kcal', product_comment = '써브웨이 최초의 코리안 스타일 샐러드! &lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu049.png';</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  'K-바비큐', product_eng_name = 'K-BBQ', product_kcal = '210 kcal', product_comment = '써브웨이 최초의 코리안 스타일 샐러드! &lt;br&gt;마늘, 간장 그리고 은은한 불맛까지!', product_image = 'menu049';</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>335</v>
       </c>
@@ -4627,14 +4627,14 @@
         <v>206</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '165 kcal', product_comment = '훈연한 미국 스타일의 풀드 포크 바비큐가 가득 올라간 풍미 가득한 샐러드', product_image = 'menu050.png';</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '풀드 포크 바비큐', product_eng_name = 'Pulled Pork Barbecue', product_kcal = '165 kcal', product_comment = '훈연한 미국 스타일의 풀드 포크 바비큐가 가득 올라간 풍미 가득한 샐러드', product_image = 'menu050';</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>335</v>
       </c>
@@ -4660,14 +4660,14 @@
         <v>208</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '144 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해진 완벽한 앙상블', product_image = 'menu051.png';</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '써브웨이 클럽', product_eng_name = 'Subway Club™', product_kcal = '144 kcal', product_comment = '고소한 베이컨, 담백한 치킨 슬라이스에 햄까지 더해진 완벽한 앙상블', product_image = 'menu051';</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>335</v>
       </c>
@@ -4693,14 +4693,14 @@
         <v>210</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '152 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스 토핑으로 더 풍성한 샐러드', product_image = 'menu052.png';</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '03', product_name =  '치킨 데리야끼', product_eng_name = 'Chicken Teriyaki', product_kcal = '152 kcal', product_comment = '담백한 치킨 스트립에 달콤짭쪼름한 써브웨이 특제 데리야끼 소스 토핑으로 더 풍성한 샐러드', product_image = 'menu052';</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>335</v>
       </c>
@@ -4726,14 +4726,14 @@
         <v>318</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T™', product_kcal = '226 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T. 샐러드', product_image = 'menu053.png';</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '이탈리안 비엠티', product_eng_name = 'Italian B.M.T™', product_kcal = '226 kcal', product_comment = '페퍼로니, 살라미 그리고 햄이 만들어내는 최상의 조화! &lt;br&gt;전세계가 사랑하는 써브웨이의 베스트셀러! &lt;br&gt;Biggest Meatiest Tastiest, its’ B.M.T. 샐러드', product_image = 'menu053';</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>335</v>
       </c>
@@ -4759,14 +4759,14 @@
         <v>129</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '153 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu054.png';</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '비엘티', product_eng_name = 'B.L.T.', product_kcal = '153 kcal', product_comment = '오리지널 아메리칸 스타일 베이컨의 풍미와 바삭함 그대로~', product_image = 'menu054';</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>335</v>
       </c>
@@ -4792,14 +4792,14 @@
         <v>133</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '103 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu055.png';</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '치킨 슬라이스', product_eng_name = 'Chicken Slice', product_kcal = '103 kcal', product_comment = '닭가슴살로 만든 치킨 슬라이스로 즐기는 담백한 맛!', product_image = 'menu055';</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>335</v>
       </c>
@@ -4825,14 +4825,14 @@
         <v>137</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '153 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu056.png';</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '참치', product_eng_name = 'Tuna', product_kcal = '153 kcal', product_comment = '남녀노소 누구나 좋아하는 담백한 참치와 고소한 마요네즈의 완벽한 조화', product_image = 'menu056';</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>335</v>
       </c>
@@ -4858,14 +4858,14 @@
         <v>216</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '99.5 kcal', product_comment = '기본 중에 기본! 풍부한 햄 토핑 가득 샐러드', product_image = 'menu057.png';</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '햄', product_eng_name = 'Ham', product_kcal = '99.5 kcal', product_comment = '기본 중에 기본! 풍부한 햄 토핑 가득 샐러드', product_image = 'menu057';</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>335</v>
       </c>
@@ -4891,14 +4891,14 @@
         <v>145</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '254 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu058.png';</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '01', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '254 kcal', product_comment = '부드러운 달걀과 고소한 마요네즈가 만나 더 부드러운 스테디셀러', product_image = 'menu058';</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>335</v>
       </c>
@@ -4924,14 +4924,14 @@
         <v>220</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite™', product_kcal = '46.7 kcal', product_comment = '7가지 야채만으로도 깔끔한 조화! 기본에 충실한 베지 샐러드', product_image = 'menu059.png';</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '02', product_name =  '베지', product_eng_name = 'Veggie Delite™', product_kcal = '46.7 kcal', product_comment = '7가지 야채만으로도 깔끔한 조화! 기본에 충실한 베지 샐러드', product_image = 'menu059';</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>335</v>
       </c>
@@ -4954,14 +4954,14 @@
         <v>305</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu060.png';</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그 슬라이스', product_eng_name = 'Egg Slice', product_kcal = '', product_comment = '신선한 달걀의 담백함을 추가해,&lt;br&gt;더 든든하게 즐겨보세요.&lt;br&gt;15cm : 1,200원 / 30cm : 2,400원', product_image = 'menu060';</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>335</v>
       </c>
@@ -4984,14 +4984,14 @@
         <v>306</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu061.png';</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '미트 추가', product_eng_name = 'Meat', product_kcal = '', product_comment = '주 재료를 2배로 더 푸짐하게 즐기세요&lt;br&gt;15cm : 3,000원 / 30cm : 6,000원', product_image = 'menu061';</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>335</v>
       </c>
@@ -5014,14 +5014,14 @@
         <v>319</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨 비츠', product_eng_name = 'Bacon Bits', product_kcal = '', product_comment = '짭쪼름한 베이컨 비츠로 맛의 화룡점정을!&lt;br&gt;15cm : 1,500원 / 30cm :3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu062.png';</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨 비츠', product_eng_name = 'Bacon Bits', product_kcal = '', product_comment = '짭쪼름한 베이컨 비츠로 맛의 화룡점정을!&lt;br&gt;15cm : 1,500원 / 30cm :3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu062';</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>335</v>
       </c>
@@ -5044,14 +5044,14 @@
         <v>307</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu063.png';</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '에그마요', product_eng_name = 'Egg Mayo', product_kcal = '', product_comment = '신선한 달걀과&lt;br&gt;고소한 마요네즈의 만남&lt;br&gt;15cm : 2,000원 / 30cm : 4,000원', product_image = 'menu063';</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>335</v>
       </c>
@@ -5074,14 +5074,14 @@
         <v>308</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu064.png';</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '오믈렛', product_eng_name = 'Omelet', product_kcal = '', product_comment = '더 부드럽게, 더 고소하게&lt;br&gt;15cm : 1,800원 / 30cm : 3,600원', product_image = 'menu064';</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>335</v>
       </c>
@@ -5104,14 +5104,14 @@
         <v>309</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu065.png';</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '아보카도', product_eng_name = 'Avocado', product_kcal = '', product_comment = '숲속의 버터 아보카도로 영양 UP&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원', product_image = 'menu065';</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>335</v>
       </c>
@@ -5134,14 +5134,14 @@
         <v>310</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" ref="J67:J94" si="1">"insert into product set product_kind = '"&amp;A67&amp;"', product_article = '"&amp;C67&amp;"', product_name =  '"&amp;E67&amp;"', product_eng_name = '"&amp;F67&amp;"', product_kcal = '"&amp;G67&amp;"', product_comment = '"&amp;H67&amp;"', product_image = '"&amp;I67&amp;"';"</f>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu066.png';</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '베이컨', product_eng_name = 'Bacon', product_kcal = '', product_comment = '진한 풍미와 바삭한 베이컨으로&lt;br&gt;특별한 나만의 써브웨이~&lt;br&gt;15cm : 1,500원 / 30cm : 3,000원&lt;br&gt;&lt;br&gt;※ 샌드위치와 샐러드 메뉴에 기본으로&lt;br&gt;제공되는 베이컨은 샌드위치(베이컨),&lt;br&gt;샐러드(베이컨 비츠)로 제공됩니다.', product_image = 'menu066';</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>335</v>
       </c>
@@ -5164,14 +5164,14 @@
         <v>311</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu067.png';</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '페퍼로니', product_eng_name = 'Pepperoni', product_kcal = '', product_comment = '입맛 당기는 페퍼로니로&lt;br&gt;써브웨이를 더 맛있게!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu067';</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>335</v>
       </c>
@@ -5194,14 +5194,14 @@
         <v>312</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu068.png';</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '03', product_article = '05', product_name =  '치즈 추가', product_eng_name = 'Cheese', product_kcal = '', product_comment = '고소한 치즈를 2배로!&lt;br&gt;15cm : 1,400원 / 30cm : 2,800원', product_image = 'menu068';</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>336</v>
       </c>
@@ -5227,14 +5227,14 @@
         <v>227</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '04', product_article = '09', product_name =  '햄, 에그&amp;amp;치즈', product_eng_name = 'Ham, Egg &amp;amp; Cheese', product_kcal = '319 kcal', product_comment = '푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 야채가 포함되지 않습니다.', product_image = 'menu069.png';</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '04', product_article = '09', product_name =  '햄, 에그&amp;amp;치즈', product_eng_name = 'Ham, Egg &amp;amp; Cheese', product_kcal = '319 kcal', product_comment = '푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 야채가 포함되지 않습니다.', product_image = 'menu069';</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>336</v>
       </c>
@@ -5260,14 +5260,14 @@
         <v>232</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '04', product_article = '09', product_name =  '웨스턴, 에그 &amp;amp; 치즈', product_eng_name = 'Western, Egg &amp;amp; Cheese', product_kcal = '315 kcal', product_comment = '토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 토마토, 피망, 양파 이외의 야채가 포함되지 않습니다.', product_image = 'menu070.png';</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '04', product_article = '09', product_name =  '웨스턴, 에그 &amp;amp; 치즈', product_eng_name = 'Western, Egg &amp;amp; Cheese', product_kcal = '315 kcal', product_comment = '토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※ 아침메뉴 제공시간 : 오전 11시까지&lt;br&gt;※ 본 메뉴에는 토마토, 피망, 양파 이외의 야채가 포함되지 않습니다.', product_image = 'menu070';</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>336</v>
       </c>
@@ -5293,14 +5293,14 @@
         <v>236</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '04', product_article = '10', product_name =  '햄, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Ham, Egg &amp;amp; Cheese Wrap', product_kcal = '288 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu071.png';</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '04', product_article = '10', product_name =  '햄, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Ham, Egg &amp;amp; Cheese Wrap', product_kcal = '288 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;푹신한 오믈렛과 햄의 가장 클래식한 조화&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu071';</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>336</v>
       </c>
@@ -5326,14 +5326,14 @@
         <v>240</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '04', product_article = '10', product_name =  '웨스턴, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Western, Egg &amp;amp; Cheese Wrap', product_kcal = '298 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu072.png';</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '04', product_article = '10', product_name =  '웨스턴, 에그 &amp;amp; 치즈 랩', product_eng_name = 'Western, Egg &amp;amp; Cheese Wrap', product_kcal = '298 kcal', product_comment = '이제 랩으로 즐기세요!&lt;br&gt;토마토, 피망, 양파 세가지 야채가 더해져 더욱 신선한 하루 시작&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu072';</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>337</v>
       </c>
@@ -5341,10 +5341,10 @@
         <v>247</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D74" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E74" t="s">
         <v>243</v>
@@ -5359,14 +5359,14 @@
         <v>246</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073.png';</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '콘 수프', product_eng_name = 'Corn Soup', product_kcal = '81 kcal /  163 kcal', product_comment = '달콤한 옥수수의 깊은 풍미가 느껴지는 콘 수프', product_image = 'menu073';</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>337</v>
       </c>
@@ -5374,10 +5374,10 @@
         <v>247</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E75" t="s">
         <v>248</v>
@@ -5392,14 +5392,14 @@
         <v>251</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074.png';</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '머쉬룸 수프', product_eng_name = 'Mushroom Soup', product_kcal = '64 kcal /  129 kcal', product_comment = '부드러운 머쉬룸의 풍미가 가득한 머쉬룸 수프', product_image = 'menu074';</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>337</v>
       </c>
@@ -5407,10 +5407,10 @@
         <v>247</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D76" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E76" t="s">
         <v>252</v>
@@ -5425,14 +5425,14 @@
         <v>255</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075.png';</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '초코칩', product_eng_name = 'Chocolate Chip', product_kcal = '228 kcal', product_comment = '알알이 가득한 초코의 가장 클래식한 달콤함', product_image = 'menu075';</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>337</v>
       </c>
@@ -5440,10 +5440,10 @@
         <v>247</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D77" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E77" t="s">
         <v>256</v>
@@ -5458,14 +5458,14 @@
         <v>320</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076.png';</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '더블 초코칩', product_eng_name = 'Double Chocolate Chip', product_kcal = '212 kcal', product_comment = '부드러운 화이트초콜릿과 다크 초콜릿의&lt;br&gt;절묘한 조화로 더욱 풍부한 달콤함', product_image = 'menu076';</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>337</v>
       </c>
@@ -5473,10 +5473,10 @@
         <v>247</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D78" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E78" t="s">
         <v>259</v>
@@ -5491,14 +5491,14 @@
         <v>321</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077.png';</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '오트밀 레이즌', product_eng_name = 'Oatmeal Raisin', product_kcal = '200 kcal', product_comment = '건포도와 귀리에 살짝 더해진&lt;br&gt;계피향의 환상적인 조화 ', product_image = 'menu077';</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>337</v>
       </c>
@@ -5506,10 +5506,10 @@
         <v>247</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E79" t="s">
         <v>261</v>
@@ -5524,14 +5524,14 @@
         <v>322</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078.png';</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '라즈베리 치즈케익', product_eng_name = 'Raspberry Cheese Cake', product_kcal = '204 kcal', product_comment = '부드럽고 풍부한 치즈와 새콤달콤 라즈베리의&lt;br&gt;달콤한 만남', product_image = 'menu078';</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>337</v>
       </c>
@@ -5539,10 +5539,10 @@
         <v>247</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D80" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E80" t="s">
         <v>264</v>
@@ -5557,14 +5557,14 @@
         <v>329</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079.png';</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '화이트 초코 마카다미아', product_eng_name = 'White Choco Macadamia', product_kcal = '245 kcal', product_comment = '고소함 가득한 마카다미아와&lt;br&gt;달콤한 화이트 초콜릿의 환상 궁합', product_image = 'menu079';</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>337</v>
       </c>
@@ -5572,10 +5572,10 @@
         <v>247</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D81" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E81" t="s">
         <v>266</v>
@@ -5590,14 +5590,14 @@
         <v>330</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080.png';</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '웨지 포테이토', product_eng_name = 'Ovenbaked Wedge Potatoes', product_kcal = '140 kcal', product_comment = '오븐에 구워 더 담백,&lt;br&gt;겉은 바삭 속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu080';</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>337</v>
       </c>
@@ -5605,10 +5605,10 @@
         <v>247</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E82" t="s">
         <v>269</v>
@@ -5623,14 +5623,14 @@
         <v>331</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081.png';</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Cheesy 웨지 포테이토', product_eng_name = 'Cheesy Ovenbaked Wedge Potatoes', product_kcal = '194 kcal', product_comment = '치즈 풍미 한가득, 오븐에 구워&lt;br&gt;더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu081';</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>337</v>
       </c>
@@ -5638,10 +5638,10 @@
         <v>247</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E83" t="s">
         <v>272</v>
@@ -5656,14 +5656,14 @@
         <v>332</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082.png';</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  'Bacon Cheesy 웨지 포테이토', product_eng_name = 'Bacon Cheesy Ovenbaked Wedge Potatoes', product_kcal = '247 kcal', product_comment = '짭쪼름한 베이컨과 치즈의 궁합을 더한,&lt;br&gt;오븐에 구워 더 담백한 겉은 바삭&lt;br&gt;속은 촉촉한 건강한 사이드&lt;br&gt;※제공시간 : 오전 11시 ~', product_image = 'menu082';</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>337</v>
       </c>
@@ -5671,10 +5671,10 @@
         <v>247</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E84" t="s">
         <v>172</v>
@@ -5689,14 +5689,14 @@
         <v>315</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083.png';</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '치킨 베이컨 미니 랩', product_eng_name = 'Chicken Bacon Mini Wrap', product_kcal = '391 kcal', product_comment = '담백한 치킨, 바삭한 베이컨 비츠가&lt;br&gt;쫀득한 통밀 랩에 쏘옥!&lt;br&gt;치킨 베이컨 미니 랩', product_image = 'menu083';</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>337</v>
       </c>
@@ -5704,10 +5704,10 @@
         <v>247</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D85" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E85" t="s">
         <v>275</v>
@@ -5722,14 +5722,14 @@
         <v>328</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084.png';</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '해쉬브라운', product_eng_name = 'Hash Brown', product_kcal = '86 kcal', product_comment = '잘게 썬 감자를 노릇하게 구워&lt;br&gt;바삭하고 쫀득하게 즐기는 모닝 파트너&lt;br&gt;※아침메뉴 제공시간 : 오전 11시까지', product_image = 'menu084';</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>337</v>
       </c>
@@ -5737,10 +5737,10 @@
         <v>247</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E86" t="s">
         <v>278</v>
@@ -5752,14 +5752,14 @@
         <v>280</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085.png';</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '칩', product_eng_name = 'Chip', product_kcal = '', product_comment = '바삭바삭한 칩을 추가해 써브웨이를 즐겨보세요', product_image = 'menu085';</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>337</v>
       </c>
@@ -5767,10 +5767,10 @@
         <v>247</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D87" t="s">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
         <v>281</v>
@@ -5779,14 +5779,14 @@
         <v>282</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086.png';</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '탄산음료', product_eng_name = 'Soda', product_kcal = '', product_comment = '', product_image = 'menu086';</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>337</v>
       </c>
@@ -5794,10 +5794,10 @@
         <v>247</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>478</v>
+        <v>385</v>
       </c>
       <c r="D88" t="s">
-        <v>480</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
         <v>283</v>
@@ -5806,14 +5806,14 @@
         <v>284</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087.png';</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '05', product_article = '11', product_name =  '커피', product_eng_name = 'Coffee', product_kcal = '', product_comment = '', product_image = 'menu087';</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>338</v>
       </c>
@@ -5836,14 +5836,14 @@
         <v>327</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '프레쉬 파티플래터', product_eng_name = 'Fresh Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 햄, 참치, 에그마요, 클럽으로&lt;br&gt;구성된 어디서든 신선하게 즐길 수 있는&lt;br&gt;파티플래터', product_image = 'menu088.png';</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '프레쉬 파티플래터', product_eng_name = 'Fresh Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 햄, 참치, 에그마요, 클럽으로&lt;br&gt;구성된 어디서든 신선하게 즐길 수 있는&lt;br&gt;파티플래터', product_image = 'menu088';</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>338</v>
       </c>
@@ -5866,14 +5866,14 @@
         <v>326</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '베스트 파티플래터', product_eng_name = 'Best Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 참치, 스파이시 이탈리안, 이탈리안 비엠티,&lt;br&gt;써브웨이 클럽으로 구성된 모두의 입맛을&lt;br&gt;만족시키는 베스트 파티플래터', product_image = 'menu089.png';</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '베스트 파티플래터', product_eng_name = 'Best Party Platter', product_kcal = '', product_comment = '치킨 슬라이스, 참치, 스파이시 이탈리안, 이탈리안 비엠티,&lt;br&gt;써브웨이 클럽으로 구성된 모두의 입맛을&lt;br&gt;만족시키는 베스트 파티플래터', product_image = 'menu089';</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>338</v>
       </c>
@@ -5896,14 +5896,14 @@
         <v>325</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 90cm', product_eng_name = 'Giant Sub 3feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu090.png';</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 90cm', product_eng_name = 'Giant Sub 3feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu090';</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>338</v>
       </c>
@@ -5926,14 +5926,14 @@
         <v>325</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 180cm', product_eng_name = 'Giant Sub 6feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu091.png';</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '06', product_article = '09', product_name =  '자이언트 써브 180cm', product_eng_name = 'Giant Sub 6feet', product_kcal = '', product_comment = '보는재미, 먹는재미! 특별한 날은 자이언트&lt;br&gt;써브로 더욱 특별하게&lt;br&gt;※이탈리안 비엠티, 햄,&lt;br&gt;터키, 스파이시 이탈리안 중 선택', product_image = 'menu091';</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>338</v>
       </c>
@@ -5956,14 +5956,14 @@
         <v>324</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키박스', product_eng_name = 'Cookie box', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (12개입)', product_image = 'menu092.png';</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키박스', product_eng_name = 'Cookie box', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (12개입)', product_image = 'menu092';</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>338</v>
       </c>
@@ -5986,21 +5986,15 @@
         <v>323</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키플래터', product_eng_name = 'Cookie Platter', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (36개입)', product_image = 'menu093.png';</v>
+        <v>insert into product set product_kind = '06', product_article = '08', product_name =  '쿠키플래터', product_eng_name = 'Cookie Platter', product_kcal = '', product_comment = '즐거운 순간을 5가지 맛의 쿠키와&lt;br&gt;함께 즐기세요 (36개입)', product_image = 'menu093';</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D94">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="05"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D94" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6008,19 +6002,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>335</v>
       </c>
@@ -6032,7 +6026,7 @@
         <v>insert into article set article_code = '03', article_name = '프리미엄';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -6044,7 +6038,7 @@
         <v>insert into article set article_code = '02', article_name = '프레쉬&amp;라이트';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>333</v>
       </c>
@@ -6056,7 +6050,7 @@
         <v>insert into article set article_code = '01', article_name = '클래식';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>337</v>
       </c>
@@ -6068,7 +6062,7 @@
         <v>insert into article set article_code = '05', article_name = '추가선택';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -6080,7 +6074,7 @@
         <v>insert into article set article_code = '06', article_name = '시그니처랩';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>
@@ -6092,7 +6086,7 @@
         <v>insert into article set article_code = '08', article_name = '미니랩';</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>336</v>
       </c>
@@ -6104,7 +6098,7 @@
         <v>insert into article set article_code = '04', article_name = '신제품';</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>341</v>
       </c>
@@ -6116,7 +6110,7 @@
         <v>insert into article set article_code = '09', article_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>342</v>
       </c>
@@ -6128,7 +6122,7 @@
         <v>insert into article set article_code = '10', article_name = '랩';</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>340</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>insert into article set article_code = '00', article_name = '';</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>339</v>
       </c>
@@ -6156,19 +6150,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>333</v>
       </c>
@@ -6180,7 +6174,7 @@
         <v>insert into kind set kind_code = '01', kind_name = '샌드위치';</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
@@ -6192,7 +6186,7 @@
         <v>insert into kind set kind_code = '02', kind_name = '랩기타';</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>335</v>
       </c>
@@ -6204,7 +6198,7 @@
         <v>insert into kind set kind_code = '03', kind_name = '샐러드';</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>336</v>
       </c>
@@ -6216,7 +6210,7 @@
         <v>insert into kind set kind_code = '04', kind_name = '아침메뉴';</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>337</v>
       </c>
@@ -6228,7 +6222,7 @@
         <v>insert into kind set kind_code = '05', kind_name = '스마일썹';</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>338</v>
       </c>
